--- a/100runs/run061/NotionalETEOutput061.xlsx
+++ b/100runs/run061/NotionalETEOutput061.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,34 +49,31 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
+    <t>Missile_HIGHWIND_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>MISSILE_BRAVER_108.MISSILE_BRAVER_108</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>MISSILE_HIGHWIND_305.MISSILE_HIGHWIND_305</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_179.MISSILE_HELLMASKER_179</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER_251.MISSILE_HELLMASKER_251</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER_36.MISSILE_BRAVER_36</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT_402.MISSILE_SOMERSAULT_402</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_HELLMASKER_272.MISSILE_HELLMASKER_272</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HIGHWIND</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,28 +483,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G2">
-        <v>-157.6664746308322</v>
+        <v>4841128.64171411</v>
       </c>
       <c r="H2">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I2">
-        <v>-1646.354409668573</v>
+        <v>1114861.529673187</v>
       </c>
       <c r="J2">
-        <v>2694.108092846533</v>
+        <v>4843233.409794312</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984367.189788543</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -521,28 +518,28 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G3">
-        <v>-157.6664746308322</v>
+        <v>4841128.64171411</v>
       </c>
       <c r="H3">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I3">
-        <v>-1613.850989812392</v>
+        <v>1114891.143674226</v>
       </c>
       <c r="J3">
-        <v>2628.571774049261</v>
+        <v>4843184.758104266</v>
       </c>
       <c r="K3">
-        <v>326.6338258903484</v>
+        <v>3984670.98554176</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -556,28 +553,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G4">
-        <v>-157.6664746308322</v>
+        <v>4841128.64171411</v>
       </c>
       <c r="H4">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I4">
-        <v>-1580.547203144851</v>
+        <v>1114921.486892797</v>
       </c>
       <c r="J4">
-        <v>2563.03545525199</v>
+        <v>4843136.106414219</v>
       </c>
       <c r="K4">
-        <v>636.9801919860968</v>
+        <v>3984959.632646173</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -591,28 +588,28 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G5">
-        <v>-157.6664746308322</v>
+        <v>4841128.64171411</v>
       </c>
       <c r="H5">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I5">
-        <v>-1546.423341369544</v>
+        <v>1114952.577285209</v>
       </c>
       <c r="J5">
-        <v>2497.499136454719</v>
+        <v>4843087.454724173</v>
       </c>
       <c r="K5">
-        <v>931.0390982872473</v>
+        <v>3985233.131101781</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -626,28 +623,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G6">
-        <v>-157.6664746308322</v>
+        <v>4841128.64171411</v>
       </c>
       <c r="H6">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I6">
-        <v>-1511.459210891397</v>
+        <v>1114984.433249932</v>
       </c>
       <c r="J6">
-        <v>2431.962817657447</v>
+        <v>4843038.803034127</v>
       </c>
       <c r="K6">
-        <v>1208.810544793798</v>
+        <v>3985491.480908583</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -661,28 +658,28 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G7">
-        <v>-157.6664746308322</v>
+        <v>4841128.64171411</v>
       </c>
       <c r="H7">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I7">
-        <v>-1475.634120866635</v>
+        <v>1115017.073638479</v>
       </c>
       <c r="J7">
-        <v>2366.426498860176</v>
+        <v>4842990.151344081</v>
       </c>
       <c r="K7">
-        <v>1470.294531505751</v>
+        <v>3985734.682066581</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +693,28 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G8">
-        <v>-157.6664746308322</v>
+        <v>4841128.64171411</v>
       </c>
       <c r="H8">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I8">
-        <v>-1438.926870958493</v>
+        <v>1115050.517766566</v>
       </c>
       <c r="J8">
-        <v>2300.890180062904</v>
+        <v>4842941.499654034</v>
       </c>
       <c r="K8">
-        <v>1715.491058423105</v>
+        <v>3985962.734575772</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +728,28 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G9">
-        <v>-157.6664746308322</v>
+        <v>4841128.64171411</v>
       </c>
       <c r="H9">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I9">
-        <v>-1401.315738791413</v>
+        <v>1115084.785425539</v>
       </c>
       <c r="J9">
-        <v>2235.353861265633</v>
+        <v>4842892.847963989</v>
       </c>
       <c r="K9">
-        <v>1944.400125545861</v>
+        <v>3986175.638436159</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,28 +763,28 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>245.4243319523579</v>
+        <v>1116577.848457375</v>
       </c>
       <c r="G10">
-        <v>-131.6313016499959</v>
+        <v>4841145.154547232</v>
       </c>
       <c r="H10">
-        <v>787.8536315941079</v>
+        <v>3985234.176458882</v>
       </c>
       <c r="I10">
-        <v>-1362.778467096326</v>
+        <v>1115119.896894088</v>
       </c>
       <c r="J10">
-        <v>2169.817542468361</v>
+        <v>4842844.196273942</v>
       </c>
       <c r="K10">
-        <v>2157.021732874016</v>
+        <v>3986373.393647741</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,28 +798,28 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>190.477911928463</v>
+        <v>1116529.167922179</v>
       </c>
       <c r="G11">
-        <v>-105.5961286691596</v>
+        <v>4841161.667380353</v>
       </c>
       <c r="H11">
-        <v>970.6303726128791</v>
+        <v>3985433.431158052</v>
       </c>
       <c r="I11">
-        <v>-1323.292250539387</v>
+        <v>1115155.872950249</v>
       </c>
       <c r="J11">
-        <v>2104.28122367109</v>
+        <v>4842795.544583896</v>
       </c>
       <c r="K11">
-        <v>2353.355880407573</v>
+        <v>3986556.000210517</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -836,28 +833,28 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>158.1996465744025</v>
+        <v>1116500.570549831</v>
       </c>
       <c r="G12">
-        <v>-79.56095568832338</v>
+        <v>4841178.180213475</v>
       </c>
       <c r="H12">
-        <v>1079.501547121067</v>
+        <v>3985552.117447149</v>
       </c>
       <c r="I12">
-        <v>-1282.833722226387</v>
+        <v>1115192.734883695</v>
       </c>
       <c r="J12">
-        <v>2038.744904873818</v>
+        <v>4842746.89289385</v>
       </c>
       <c r="K12">
-        <v>2533.402568146532</v>
+        <v>3986723.458124489</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -871,28 +868,28 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>137.823237429561</v>
+        <v>1116482.517790395</v>
       </c>
       <c r="G13">
-        <v>-53.52578270748709</v>
+        <v>4841194.693046597</v>
       </c>
       <c r="H13">
-        <v>1157.304417220688</v>
+        <v>3985636.934516268</v>
       </c>
       <c r="I13">
-        <v>-1241.378939874842</v>
+        <v>1115230.50450834</v>
       </c>
       <c r="J13">
-        <v>1973.208586076546</v>
+        <v>4842698.241203804</v>
       </c>
       <c r="K13">
-        <v>2697.161796090892</v>
+        <v>3986875.767389655</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -906,28 +903,28 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>123.6128124046491</v>
+        <v>1116469.927869245</v>
       </c>
       <c r="G14">
-        <v>-27.49060972665081</v>
+        <v>4841211.205879718</v>
       </c>
       <c r="H14">
-        <v>1217.889470484344</v>
+        <v>3985702.981522549</v>
       </c>
       <c r="I14">
-        <v>-1198.903371645592</v>
+        <v>1115269.204175244</v>
       </c>
       <c r="J14">
-        <v>1907.672267279275</v>
+        <v>4842649.589513758</v>
       </c>
       <c r="K14">
-        <v>2844.633564240653</v>
+        <v>3987012.928006015</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -941,28 +938,28 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>113.0114097823898</v>
+        <v>1116460.535411042</v>
       </c>
       <c r="G15">
-        <v>-1.455436745814551</v>
+        <v>4841227.71871284</v>
       </c>
       <c r="H15">
-        <v>1267.513328512368</v>
+        <v>3985757.079143767</v>
       </c>
       <c r="I15">
-        <v>-1155.381881625502</v>
+        <v>1115308.856785842</v>
       </c>
       <c r="J15">
-        <v>1842.135948482004</v>
+        <v>4842600.937823712</v>
       </c>
       <c r="K15">
-        <v>2975.817872595815</v>
+        <v>3987134.939973571</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -976,28 +973,28 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>104.7225933737688</v>
+        <v>1116453.191820345</v>
       </c>
       <c r="G16">
-        <v>24.57973623502173</v>
+        <v>4841244.231545961</v>
       </c>
       <c r="H16">
-        <v>1309.541113896036</v>
+        <v>3985802.895880003</v>
       </c>
       <c r="I16">
-        <v>-1110.788714952704</v>
+        <v>1115349.485805498</v>
       </c>
       <c r="J16">
-        <v>1776.599629684732</v>
+        <v>4842552.286133665</v>
       </c>
       <c r="K16">
-        <v>3090.714721156378</v>
+        <v>3987241.803292322</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1011,28 +1008,28 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>98.01633737068204</v>
+        <v>1116447.250320767</v>
       </c>
       <c r="G17">
-        <v>50.61490921585801</v>
+        <v>4841260.744379084</v>
       </c>
       <c r="H17">
-        <v>1345.992563315918</v>
+        <v>3985842.633554217</v>
       </c>
       <c r="I17">
-        <v>-1065.09748257555</v>
+        <v>1115391.115277383</v>
       </c>
       <c r="J17">
-        <v>1711.063310887461</v>
+        <v>4842503.634443619</v>
       </c>
       <c r="K17">
-        <v>3189.324109922342</v>
+        <v>3987333.517962267</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1046,28 +1043,28 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>92.44775531523953</v>
+        <v>1116442.316759042</v>
       </c>
       <c r="G18">
-        <v>76.65008219669427</v>
+        <v>4841277.257212206</v>
       </c>
       <c r="H18">
-        <v>1378.17558614794</v>
+        <v>3985877.717988357</v>
       </c>
       <c r="I18">
-        <v>-1018.281145636271</v>
+        <v>1115433.769836716</v>
       </c>
       <c r="J18">
-        <v>1645.526992090189</v>
+        <v>4842454.982753573</v>
       </c>
       <c r="K18">
-        <v>3271.646038893708</v>
+        <v>3987410.083983407</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1081,28 +1078,28 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>87.72880100699267</v>
+        <v>1116438.135936685</v>
       </c>
       <c r="G19">
-        <v>102.6852551775306</v>
+        <v>4841293.770045327</v>
       </c>
       <c r="H19">
-        <v>1406.985867736199</v>
+        <v>3985909.125616915</v>
       </c>
       <c r="I19">
-        <v>-970.3119994701026</v>
+        <v>1115477.474725331</v>
       </c>
       <c r="J19">
-        <v>1579.990673292917</v>
+        <v>4842406.331063528</v>
       </c>
       <c r="K19">
-        <v>3337.680508070475</v>
+        <v>3987471.501355742</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1116,28 +1113,28 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>83.66388225334883</v>
+        <v>1116434.534566107</v>
       </c>
       <c r="G20">
-        <v>128.7204281583668</v>
+        <v>4841310.282878448</v>
       </c>
       <c r="H20">
-        <v>1433.063748295054</v>
+        <v>3985937.554508998</v>
       </c>
       <c r="I20">
-        <v>-921.1616572103974</v>
+        <v>1115522.25580662</v>
       </c>
       <c r="J20">
-        <v>1514.454354495646</v>
+        <v>4842357.67937348</v>
       </c>
       <c r="K20">
-        <v>3387.427517452643</v>
+        <v>3987517.770079272</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1151,28 +1148,28 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>80.1149981400156</v>
+        <v>1116431.390383503</v>
       </c>
       <c r="G21">
-        <v>154.7556011392031</v>
+        <v>4841326.79571157</v>
       </c>
       <c r="H21">
-        <v>1456.882914557122</v>
+        <v>3985963.521055844</v>
       </c>
       <c r="I21">
-        <v>-870.801032990033</v>
+        <v>1115568.139580839</v>
       </c>
       <c r="J21">
-        <v>1448.918035698375</v>
+        <v>4842309.027683434</v>
       </c>
       <c r="K21">
-        <v>3420.887067040212</v>
+        <v>3987548.890153997</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1186,28 +1183,28 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>76.98166888933508</v>
+        <v>1116428.614367435</v>
       </c>
       <c r="G22">
-        <v>180.7907741200394</v>
+        <v>4841343.308544692</v>
       </c>
       <c r="H22">
-        <v>1478.803641798279</v>
+        <v>3985987.418012796</v>
       </c>
       <c r="I22">
-        <v>-819.2003247291665</v>
+        <v>1115615.153200784</v>
       </c>
       <c r="J22">
-        <v>1383.381716901103</v>
+        <v>4842260.375993389</v>
       </c>
       <c r="K22">
-        <v>3438.059156833183</v>
+        <v>3987564.861579916</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1221,28 +1218,28 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>74.18878550074902</v>
+        <v>1116426.139974053</v>
       </c>
       <c r="G23">
-        <v>206.8259471008757</v>
+        <v>4841359.821377814</v>
       </c>
       <c r="H23">
-        <v>1499.106337553222</v>
+        <v>3986009.551067103</v>
       </c>
       <c r="I23">
-        <v>-766.3289964991574</v>
+        <v>1115663.32448787</v>
       </c>
       <c r="J23">
-        <v>1317.845398103831</v>
+        <v>4842211.724303342</v>
       </c>
       <c r="K23">
-        <v>3438.943786831554</v>
+        <v>3987565.68435703</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1256,28 +1253,28 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>71.67893869882569</v>
+        <v>1116423.91634082</v>
       </c>
       <c r="G24">
-        <v>232.861120081712</v>
+        <v>4841376.334210936</v>
       </c>
       <c r="H24">
-        <v>1518.013533147064</v>
+        <v>3986030.162812062</v>
       </c>
       <c r="I24">
-        <v>-712.1557604522145</v>
+        <v>1115712.681948583</v>
       </c>
       <c r="J24">
-        <v>1252.30907930656</v>
+        <v>4842163.072613296</v>
       </c>
       <c r="K24">
-        <v>3423.540957035327</v>
+        <v>3987551.358485339</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1291,28 +1288,28 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>69.40740075911411</v>
+        <v>1116421.903840596</v>
       </c>
       <c r="G25">
-        <v>258.8962930625482</v>
+        <v>4841392.847044057</v>
       </c>
       <c r="H25">
-        <v>1535.704791094152</v>
+        <v>3986049.44899837</v>
       </c>
       <c r="I25">
-        <v>-656.6485583060786</v>
+        <v>1115763.254791358</v>
       </c>
       <c r="J25">
-        <v>1186.772760509289</v>
+        <v>4842114.42092325</v>
       </c>
       <c r="K25">
-        <v>3391.850667444501</v>
+        <v>3987521.883964843</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1326,28 +1323,28 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>67.33874132005249</v>
+        <v>1116420.071083364</v>
       </c>
       <c r="G26">
-        <v>284.9314660433845</v>
+        <v>4841409.359877179</v>
       </c>
       <c r="H26">
-        <v>1552.327101807785</v>
+        <v>3986067.569868139</v>
       </c>
       <c r="I26">
-        <v>-599.7745423727838</v>
+        <v>1115815.07294386</v>
       </c>
       <c r="J26">
-        <v>1121.236441712017</v>
+        <v>4842065.769233203</v>
       </c>
       <c r="K26">
-        <v>3343.872918059076</v>
+        <v>3987477.260795542</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1361,28 +1358,28 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>65.44448415820059</v>
+        <v>1116418.392840225</v>
       </c>
       <c r="G27">
-        <v>310.9666390242207</v>
+        <v>4841425.872710301</v>
       </c>
       <c r="H27">
-        <v>1568.00231439327</v>
+        <v>3986084.658255593</v>
       </c>
       <c r="I27">
-        <v>-541.5000561202671</v>
+        <v>1115868.167070696</v>
       </c>
       <c r="J27">
-        <v>1055.700122914745</v>
+        <v>4842017.117543157</v>
       </c>
       <c r="K27">
-        <v>3279.607708879052</v>
+        <v>3987417.488977435</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1396,28 +1393,28 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>63.70144688286874</v>
+        <v>1116416.84857242</v>
       </c>
       <c r="G28">
-        <v>337.001812005057</v>
+        <v>4841442.385543423</v>
       </c>
       <c r="H28">
-        <v>1582.832562273799</v>
+        <v>3986100.825501839</v>
       </c>
       <c r="I28">
-        <v>-481.7906142553267</v>
+        <v>1115922.56859156</v>
       </c>
       <c r="J28">
-        <v>990.163804117474</v>
+        <v>4841968.465853111</v>
       </c>
       <c r="K28">
-        <v>3199.05503990443</v>
+        <v>3987342.568510523</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1431,28 +1428,28 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>62.09054034768699</v>
+        <v>1116415.421367659</v>
       </c>
       <c r="G29">
-        <v>363.0369849858933</v>
+        <v>4841458.898376545</v>
       </c>
       <c r="H29">
-        <v>1596.904299837507</v>
+        <v>3986116.165855428</v>
       </c>
       <c r="I29">
-        <v>-420.6108823161407</v>
+        <v>1115978.309699826</v>
       </c>
       <c r="J29">
-        <v>924.6274853202024</v>
+        <v>4841919.814163066</v>
       </c>
       <c r="K29">
-        <v>3102.214911135209</v>
+        <v>3987252.499394807</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1466,28 +1463,28 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>60.595884660152</v>
+        <v>1116414.097156932</v>
       </c>
       <c r="G30">
-        <v>389.0721579667295</v>
+        <v>4841475.411209665</v>
       </c>
       <c r="H30">
-        <v>1610.291356102204</v>
+        <v>3986130.75980132</v>
       </c>
       <c r="I30">
-        <v>-357.9246557622737</v>
+        <v>1116035.423381602</v>
       </c>
       <c r="J30">
-        <v>859.0911665229307</v>
+        <v>4841871.162473019</v>
       </c>
       <c r="K30">
-        <v>2989.087322571388</v>
+        <v>3987147.281630285</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1501,28 +1498,28 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>59.20414769776396</v>
+        <v>1116412.864128462</v>
       </c>
       <c r="G31">
-        <v>415.1073309475659</v>
+        <v>4841491.924042787</v>
       </c>
       <c r="H31">
-        <v>1623.057279351352</v>
+        <v>3986144.676616897</v>
       </c>
       <c r="I31">
-        <v>-293.694838549789</v>
+        <v>1116093.943435249</v>
       </c>
       <c r="J31">
-        <v>793.5548477256594</v>
+        <v>4841822.510782972</v>
       </c>
       <c r="K31">
-        <v>2859.67227421297</v>
+        <v>3987026.915216957</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1536,28 +1533,28 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>57.90404287538131</v>
+        <v>1116411.712282745</v>
       </c>
       <c r="G32">
-        <v>441.1425039284022</v>
+        <v>4841508.43687591</v>
       </c>
       <c r="H32">
-        <v>1635.257161559987</v>
+        <v>3986157.976360868</v>
       </c>
       <c r="I32">
-        <v>-227.8834211787952</v>
+        <v>1116153.904491379</v>
       </c>
       <c r="J32">
-        <v>728.0185289283878</v>
+        <v>4841773.859092927</v>
       </c>
       <c r="K32">
-        <v>2713.969766059951</v>
+        <v>3986891.400154825</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1571,28 +1568,28 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>56.68594277708606</v>
+        <v>1116410.633090239</v>
       </c>
       <c r="G33">
-        <v>467.1776769092384</v>
+        <v>4841524.949709031</v>
       </c>
       <c r="H33">
-        <v>1646.93907524984</v>
+        <v>3986170.711439659</v>
       </c>
       <c r="I33">
-        <v>-160.451458200434</v>
+        <v>1116215.342033353</v>
       </c>
       <c r="J33">
-        <v>662.4822101311165</v>
+        <v>4841725.20740288</v>
       </c>
       <c r="K33">
-        <v>2551.979798112336</v>
+        <v>3986740.736443887</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1606,28 +1603,28 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>55.54157834944402</v>
+        <v>1116409.619224864</v>
       </c>
       <c r="G34">
-        <v>493.2128498900747</v>
+        <v>4841541.462542153</v>
       </c>
       <c r="H34">
-        <v>1658.145217560126</v>
+        <v>3986182.927854627</v>
       </c>
       <c r="I34">
-        <v>-91.35904516999904</v>
+        <v>1116278.292418277</v>
       </c>
       <c r="J34">
-        <v>596.9458913338449</v>
+        <v>4841676.555712835</v>
       </c>
       <c r="K34">
-        <v>2373.70237037012</v>
+        <v>3986574.924084144</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1641,28 +1638,28 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>54.46380214001353</v>
+        <v>1116408.664354234</v>
       </c>
       <c r="G35">
-        <v>519.248022870911</v>
+        <v>4841557.975375274</v>
       </c>
       <c r="H35">
-        <v>1668.912830331278</v>
+        <v>3986194.666205096</v>
       </c>
       <c r="I35">
-        <v>-20.56529503254437</v>
+        <v>1116342.792898516</v>
       </c>
       <c r="J35">
-        <v>531.4095725365733</v>
+        <v>4841627.904022788</v>
       </c>
       <c r="K35">
-        <v>2179.137482833306</v>
+        <v>3986393.963075596</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1676,28 +1673,28 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>53.44640007293282</v>
+        <v>1116407.762972904</v>
       </c>
       <c r="G36">
-        <v>545.2831958517472</v>
+        <v>4841574.488208396</v>
       </c>
       <c r="H36">
-        <v>1679.274946847579</v>
+        <v>3986205.962502413</v>
       </c>
       <c r="I36">
-        <v>51.97168607298943</v>
+        <v>1116408.881643742</v>
       </c>
       <c r="J36">
-        <v>465.873253739302</v>
+        <v>4841579.252332741</v>
       </c>
       <c r="K36">
-        <v>1968.285135501893</v>
+        <v>3986197.853418244</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1711,28 +1708,28 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>52.48394042909687</v>
+        <v>1116406.910268569</v>
       </c>
       <c r="G37">
-        <v>571.3183688325835</v>
+        <v>4841591.001041519</v>
       </c>
       <c r="H37">
-        <v>1689.261003008176</v>
+        <v>3986216.848836227</v>
       </c>
       <c r="I37">
-        <v>126.2948236054479</v>
+        <v>1116476.597763518</v>
       </c>
       <c r="J37">
-        <v>400.3369349420303</v>
+        <v>4841530.600642696</v>
       </c>
       <c r="K37">
-        <v>1741.145328375881</v>
+        <v>3985986.595112085</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1746,28 +1743,28 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>51.57165164447802</v>
+        <v>1116406.102013795</v>
       </c>
       <c r="G38">
-        <v>597.3535418134197</v>
+        <v>4841607.51387464</v>
       </c>
       <c r="H38">
-        <v>1698.897341430275</v>
+        <v>3986227.353924033</v>
       </c>
       <c r="I38">
-        <v>202.4481000236111</v>
+        <v>1116545.981330447</v>
       </c>
       <c r="J38">
-        <v>334.800616144759</v>
+        <v>4841481.94895265</v>
       </c>
       <c r="K38">
-        <v>1497.718061455271</v>
+        <v>3985760.188157121</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1781,28 +1778,28 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>50.70532264758386</v>
+        <v>1116405.334477726</v>
       </c>
       <c r="G39">
-        <v>623.3887147942561</v>
+        <v>4841624.026707761</v>
       </c>
       <c r="H39">
-        <v>1708.207630232628</v>
+        <v>3986237.503567714</v>
       </c>
       <c r="I39">
-        <v>280.4765808138411</v>
+        <v>1116617.073403879</v>
       </c>
       <c r="J39">
-        <v>269.2642973474874</v>
+        <v>4841433.297262603</v>
       </c>
       <c r="K39">
-        <v>1238.003334740061</v>
+        <v>3985518.632553353</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1816,28 +1813,28 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>49.88122098393331</v>
+        <v>1116404.604353543</v>
       </c>
       <c r="G40">
-        <v>649.4238877750923</v>
+        <v>4841640.539540883</v>
       </c>
       <c r="H40">
-        <v>1717.213213261933</v>
+        <v>3986247.321035338</v>
       </c>
       <c r="I40">
-        <v>360.4264411586452</v>
+        <v>1116689.916054216</v>
       </c>
       <c r="J40">
-        <v>203.7279785502158</v>
+        <v>4841384.645572557</v>
       </c>
       <c r="K40">
-        <v>962.0011482302524</v>
+        <v>3985261.928300779</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1851,28 +1848,28 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>49.09602509485092</v>
+        <v>1116403.908698465</v>
       </c>
       <c r="G41">
-        <v>675.4590607559286</v>
+        <v>4841657.052374004</v>
       </c>
       <c r="H41">
-        <v>1725.933404804056</v>
+        <v>3986256.827382441</v>
       </c>
       <c r="I41">
-        <v>442.344993261916</v>
+        <v>1116764.552387803</v>
       </c>
       <c r="J41">
-        <v>138.1916597529445</v>
+        <v>4841335.993882511</v>
       </c>
       <c r="K41">
-        <v>669.7115019258458</v>
+        <v>3984990.0753994</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1886,28 +1883,28 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>48.34676794763401</v>
+        <v>1116403.244883809</v>
       </c>
       <c r="G42">
-        <v>701.4942337367648</v>
+        <v>4841673.565207127</v>
       </c>
       <c r="H42">
-        <v>1734.385739016195</v>
+        <v>3986266.041723945</v>
       </c>
       <c r="I42">
-        <v>526.2807143470455</v>
+        <v>1116841.026572441</v>
       </c>
       <c r="J42">
-        <v>72.65534095567286</v>
+        <v>4841287.342192465</v>
       </c>
       <c r="K42">
-        <v>361.1343958268394</v>
+        <v>3984703.073849215</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1921,28 +1918,28 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>47.63078983550131</v>
+        <v>1116402.61055317</v>
       </c>
       <c r="G43">
-        <v>727.5294067176012</v>
+        <v>4841690.078040249</v>
       </c>
       <c r="H43">
-        <v>1742.586182179655</v>
+        <v>3986274.981465547</v>
       </c>
       <c r="I43">
-        <v>612.2832753444484</v>
+        <v>1116919.383863521</v>
       </c>
       <c r="J43">
-        <v>7.119022158401233</v>
+        <v>4841238.690502418</v>
       </c>
       <c r="K43">
-        <v>36.26982993323452</v>
+        <v>3984400.923650226</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1956,28 +1953,28 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>46.9456986355041</v>
+        <v>1116402.003587216</v>
       </c>
       <c r="G44">
-        <v>753.5645796984375</v>
+        <v>4841706.59087337</v>
       </c>
       <c r="H44">
-        <v>1750.549314231368</v>
+        <v>3986283.662501616</v>
       </c>
       <c r="I44">
-        <v>700.4035702855061</v>
+        <v>1116999.670630806</v>
       </c>
       <c r="J44">
-        <v>-58.41729663887008</v>
+        <v>4841190.038812373</v>
       </c>
       <c r="K44">
-        <v>-304.8821957549682</v>
+        <v>3984083.624802431</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1991,28 +1988,28 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>46.28933617093112</v>
+        <v>1116401.422073879</v>
       </c>
       <c r="G45">
-        <v>779.5997526792736</v>
+        <v>4841723.103706492</v>
       </c>
       <c r="H45">
-        <v>1758.288484760235</v>
+        <v>3986292.099385253</v>
       </c>
       <c r="I45">
-        <v>790.693746420303</v>
+        <v>1117081.934385872</v>
       </c>
       <c r="J45">
-        <v>-123.9536154361417</v>
+        <v>4841141.387122327</v>
       </c>
       <c r="K45">
-        <v>-662.3216812377708</v>
+        <v>3983751.177305832</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2026,28 +2023,28 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>45.65974960039345</v>
+        <v>1116400.864283013</v>
       </c>
       <c r="G46">
-        <v>805.6349256601101</v>
+        <v>4841739.616539613</v>
       </c>
       <c r="H46">
-        <v>1765.815947660921</v>
+        <v>3986300.305475084</v>
       </c>
       <c r="I46">
-        <v>883.207235076981</v>
+        <v>1117166.223810227</v>
       </c>
       <c r="J46">
-        <v>-189.4899342334133</v>
+        <v>4841092.735432279</v>
       </c>
       <c r="K46">
-        <v>-1036.048626515173</v>
+        <v>3983403.581160426</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2061,28 +2058,28 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>45.05516696950512</v>
+        <v>1116400.328644731</v>
       </c>
       <c r="G47">
-        <v>831.6700986409462</v>
+        <v>4841756.129372736</v>
       </c>
       <c r="H47">
-        <v>1773.142977855934</v>
+        <v>3986308.293062505</v>
       </c>
       <c r="I47">
-        <v>977.9987832809805</v>
+        <v>1117252.588784111</v>
       </c>
       <c r="J47">
-        <v>-255.026253030685</v>
+        <v>4841044.083742234</v>
       </c>
       <c r="K47">
-        <v>-1426.063031587174</v>
+        <v>3983040.836366216</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2096,28 +2093,28 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>44.4739762280111</v>
+        <v>1116399.813730814</v>
       </c>
       <c r="G48">
-        <v>857.7052716217825</v>
+        <v>4841772.642205858</v>
       </c>
       <c r="H48">
-        <v>1780.279972877347</v>
+        <v>3986316.07348242</v>
       </c>
       <c r="I48">
-        <v>1075.124486152878</v>
+        <v>1117341.080416023</v>
       </c>
       <c r="J48">
-        <v>-320.5625718279559</v>
+        <v>4840995.432052188</v>
       </c>
       <c r="K48">
-        <v>-1832.36489645377</v>
+        <v>3982662.942923201</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2131,28 +2128,28 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>43.91470714652883</v>
+        <v>1116399.318238693</v>
       </c>
       <c r="G49">
-        <v>883.7404446026188</v>
+        <v>4841789.155038978</v>
       </c>
       <c r="H49">
-        <v>1787.236541605364</v>
+        <v>3986323.657209985</v>
       </c>
       <c r="I49">
-        <v>1174.641820103988</v>
+        <v>1117431.751072959</v>
       </c>
       <c r="J49">
-        <v>-386.0988906252276</v>
+        <v>4840946.780362141</v>
       </c>
       <c r="K49">
-        <v>-2254.954221114967</v>
+        <v>3982269.90083138</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2166,28 +2163,28 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>43.37601567103991</v>
+        <v>1116398.840977584</v>
       </c>
       <c r="G50">
-        <v>909.7756175834551</v>
+        <v>4841805.6678721</v>
       </c>
       <c r="H50">
-        <v>1794.021582064317</v>
+        <v>3986331.053945412</v>
       </c>
       <c r="I50">
-        <v>1276.609676849376</v>
+        <v>1117524.654411407</v>
       </c>
       <c r="J50">
-        <v>-451.6352094224992</v>
+        <v>4840898.128672095</v>
       </c>
       <c r="K50">
-        <v>-2693.831005570765</v>
+        <v>3981861.710090754</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2201,28 +2198,28 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>42.85667033610978</v>
+        <v>1116398.380856454</v>
       </c>
       <c r="G51">
-        <v>935.8107905642912</v>
+        <v>4841822.180705222</v>
       </c>
       <c r="H51">
-        <v>1800.643349856421</v>
+        <v>3986338.272688574</v>
       </c>
       <c r="I51">
-        <v>1381.088398258411</v>
+        <v>1117619.845409096</v>
       </c>
       <c r="J51">
-        <v>-517.1715282197708</v>
+        <v>4840849.476982049</v>
       </c>
       <c r="K51">
-        <v>-3148.995249821161</v>
+        <v>3981438.370701324</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2236,28 +2233,28 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>42.35554042421344</v>
+        <v>1116397.936873529</v>
       </c>
       <c r="G52">
-        <v>961.8459635451277</v>
+        <v>4841838.693538344</v>
       </c>
       <c r="H52">
-        <v>1807.109518553595</v>
+        <v>3986345.321804842</v>
       </c>
       <c r="I52">
-        <v>1488.139812063483</v>
+        <v>1117717.380397527</v>
       </c>
       <c r="J52">
-        <v>-582.7078470170425</v>
+        <v>4840800.825292003</v>
       </c>
       <c r="K52">
-        <v>-3620.446953866155</v>
+        <v>3980999.882663087</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2271,28 +2268,28 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>41.87158561205841</v>
+        <v>1116397.508107119</v>
       </c>
       <c r="G53">
-        <v>987.8811365259638</v>
+        <v>4841855.206371466</v>
       </c>
       <c r="H53">
-        <v>1813.427233155393</v>
+        <v>3986352.209083362</v>
       </c>
       <c r="I53">
-        <v>1597.827268448007</v>
+        <v>1117817.317095319</v>
       </c>
       <c r="J53">
-        <v>-648.2441658143134</v>
+        <v>4840752.173601957</v>
       </c>
       <c r="K53">
-        <v>-4108.186117705744</v>
+        <v>3980546.245976046</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2306,28 +2303,28 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>41.40384688816802</v>
+        <v>1116397.093707574</v>
       </c>
       <c r="G54">
-        <v>1013.9163095068</v>
+        <v>4841871.719204588</v>
       </c>
       <c r="H54">
-        <v>1819.603157547001</v>
+        <v>3986358.941788793</v>
       </c>
       <c r="I54">
-        <v>1710.215677535393</v>
+        <v>1117919.714642354</v>
       </c>
       <c r="J54">
-        <v>-713.7804846115851</v>
+        <v>4840703.52191191</v>
       </c>
       <c r="K54">
-        <v>-4612.212741339937</v>
+        <v>3980077.460640199</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,7 +2332,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -2347,22 +2344,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G55">
-        <v>-41.58360538617056</v>
+        <v>4841120.922199633</v>
       </c>
       <c r="H55">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I55">
-        <v>-470.4063415650114</v>
+        <v>1114863.803161711</v>
       </c>
       <c r="J55">
-        <v>1483.657009064151</v>
+        <v>4843226.635302728</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984372.553586825</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,7 +2367,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -2382,22 +2379,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G56">
-        <v>-41.58360538617056</v>
+        <v>4841120.922199633</v>
       </c>
       <c r="H56">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I56">
-        <v>-461.1192678139984</v>
+        <v>1114893.41722314</v>
       </c>
       <c r="J56">
-        <v>1447.565874120452</v>
+        <v>4843177.983680734</v>
       </c>
       <c r="K56">
-        <v>360.9528909607665</v>
+        <v>3984676.349749016</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,7 +2402,7 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
@@ -2417,22 +2414,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G57">
-        <v>-41.58360538617056</v>
+        <v>4841120.922199633</v>
       </c>
       <c r="H57">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I57">
-        <v>-451.603508415818</v>
+        <v>1114923.760503588</v>
       </c>
       <c r="J57">
-        <v>1411.474739176754</v>
+        <v>4843129.332058739</v>
       </c>
       <c r="K57">
-        <v>703.9070162295752</v>
+        <v>3984964.997242009</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,7 +2437,7 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -2452,22 +2449,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G58">
-        <v>-41.58360538617056</v>
+        <v>4841120.922199633</v>
       </c>
       <c r="H58">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I58">
-        <v>-441.8534321967954</v>
+        <v>1114954.850959402</v>
       </c>
       <c r="J58">
-        <v>1375.383604233055</v>
+        <v>4843080.680436744</v>
       </c>
       <c r="K58">
-        <v>1028.862375806428</v>
+        <v>3985238.496065803</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,7 +2472,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -2487,22 +2484,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G59">
-        <v>-41.58360538617056</v>
+        <v>4841120.922199633</v>
       </c>
       <c r="H59">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I59">
-        <v>-431.8632693207852</v>
+        <v>1114986.706989088</v>
       </c>
       <c r="J59">
-        <v>1339.292469289357</v>
+        <v>4843032.028814751</v>
       </c>
       <c r="K59">
-        <v>1335.818969691324</v>
+        <v>3985496.846220399</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,7 +2507,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -2522,22 +2519,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G60">
-        <v>-41.58360538617056</v>
+        <v>4841120.922199633</v>
       </c>
       <c r="H60">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I60">
-        <v>-421.6271078747343</v>
+        <v>1115019.347444197</v>
       </c>
       <c r="J60">
-        <v>1303.201334345658</v>
+        <v>4842983.377192756</v>
       </c>
       <c r="K60">
-        <v>1624.776797884265</v>
+        <v>3985740.047705796</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,7 +2542,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -2557,22 +2554,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G61">
-        <v>-41.58360538617056</v>
+        <v>4841120.922199633</v>
       </c>
       <c r="H61">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I61">
-        <v>-411.1388903701704</v>
+        <v>1115052.791640485</v>
       </c>
       <c r="J61">
-        <v>1267.11019940196</v>
+        <v>4842934.725570762</v>
       </c>
       <c r="K61">
-        <v>1895.735860385248</v>
+        <v>3985968.100521995</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,7 +2577,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -2592,22 +2589,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G62">
-        <v>-41.58360538617056</v>
+        <v>4841120.922199633</v>
       </c>
       <c r="H62">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I62">
-        <v>-400.3924101585398</v>
+        <v>1115087.059369338</v>
       </c>
       <c r="J62">
-        <v>1231.019064458261</v>
+        <v>4842886.073948767</v>
       </c>
       <c r="K62">
-        <v>2148.696157194276</v>
+        <v>3986181.004668995</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,7 +2612,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -2627,22 +2624,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>217.4241792109276</v>
+        <v>1116578.697773357</v>
       </c>
       <c r="G63">
-        <v>-34.71698163542887</v>
+        <v>4841137.435006425</v>
       </c>
       <c r="H63">
-        <v>962.8154657691058</v>
+        <v>3985224.41044493</v>
       </c>
       <c r="I63">
-        <v>-389.3813077582783</v>
+        <v>1115122.170909489</v>
       </c>
       <c r="J63">
-        <v>1194.927929514562</v>
+        <v>4842837.422326772</v>
       </c>
       <c r="K63">
-        <v>2383.657688311346</v>
+        <v>3986378.760146797</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,7 +2647,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -2662,22 +2659,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>168.7465270024524</v>
+        <v>1116530.017201132</v>
       </c>
       <c r="G64">
-        <v>-27.85035788468717</v>
+        <v>4841153.947813215</v>
       </c>
       <c r="H64">
-        <v>1186.182174988529</v>
+        <v>3985423.664655816</v>
       </c>
       <c r="I64">
-        <v>-378.0990670914388</v>
+        <v>1115158.147039014</v>
       </c>
       <c r="J64">
-        <v>1158.836794570864</v>
+        <v>4842788.770704779</v>
       </c>
       <c r="K64">
-        <v>2600.620453736459</v>
+        <v>3986561.3669554</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,7 +2682,7 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -2697,22 +2694,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>140.1508482646105</v>
+        <v>1116501.419807032</v>
       </c>
       <c r="G65">
-        <v>-20.98373413394547</v>
+        <v>4841170.460620006</v>
       </c>
       <c r="H65">
-        <v>1319.230810406807</v>
+        <v>3985542.350654067</v>
       </c>
       <c r="I65">
-        <v>-366.5390116276495</v>
+        <v>1115195.009047631</v>
       </c>
       <c r="J65">
-        <v>1122.745659627165</v>
+        <v>4842740.119082783</v>
       </c>
       <c r="K65">
-        <v>2799.584453469617</v>
+        <v>3986728.825094805</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,7 +2717,7 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
@@ -2732,22 +2729,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>122.0991579601494</v>
+        <v>1116483.367033864</v>
       </c>
       <c r="G66">
-        <v>-14.11711038320377</v>
+        <v>4841186.973426797</v>
       </c>
       <c r="H66">
-        <v>1414.311677726755</v>
+        <v>3985627.167515337</v>
       </c>
       <c r="I66">
-        <v>-354.6943004331201</v>
+        <v>1115232.778749298</v>
       </c>
       <c r="J66">
-        <v>1086.654524683467</v>
+        <v>4842691.46746079</v>
       </c>
       <c r="K66">
-        <v>2980.549687510818</v>
+        <v>3986881.134565012</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,7 +2752,7 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -2767,22 +2764,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>109.5099824179311</v>
+        <v>1116470.777103138</v>
       </c>
       <c r="G67">
-        <v>-7.250486632462074</v>
+        <v>4841203.486233587</v>
       </c>
       <c r="H67">
-        <v>1488.351098169187</v>
+        <v>3985693.214359767</v>
       </c>
       <c r="I67">
-        <v>-342.5579241223602</v>
+        <v>1115271.478495121</v>
       </c>
       <c r="J67">
-        <v>1050.563389739768</v>
+        <v>4842642.815838795</v>
       </c>
       <c r="K67">
-        <v>3143.516155860063</v>
+        <v>3987018.295366019</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,7 +2787,7 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
@@ -2802,22 +2799,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>100.1180804606437</v>
+        <v>1116461.384637791</v>
       </c>
       <c r="G68">
-        <v>-0.3838628817203806</v>
+        <v>4841219.999040378</v>
       </c>
       <c r="H68">
-        <v>1548.995126532475</v>
+        <v>3985747.311848416</v>
       </c>
       <c r="I68">
-        <v>-330.1227007102093</v>
+        <v>1115311.131186581</v>
       </c>
       <c r="J68">
-        <v>1014.47225479607</v>
+        <v>4842594.164216801</v>
       </c>
       <c r="K68">
-        <v>3288.48385851735</v>
+        <v>3987140.307497829</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,7 +2822,7 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
@@ -2837,22 +2834,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>92.77492467027027</v>
+        <v>1116454.041041508</v>
       </c>
       <c r="G69">
-        <v>6.482760869021319</v>
+        <v>4841236.511847169</v>
       </c>
       <c r="H69">
-        <v>1600.356191756665</v>
+        <v>3985793.128472376</v>
       </c>
       <c r="I69">
-        <v>-317.3812713617299</v>
+        <v>1115351.760289089</v>
       </c>
       <c r="J69">
-        <v>978.3811198523713</v>
+        <v>4842545.512594806</v>
       </c>
       <c r="K69">
-        <v>3415.452795482682</v>
+        <v>3987247.17096044</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,7 +2857,7 @@
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -2872,22 +2869,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>86.83377696315316</v>
+        <v>1116448.099537411</v>
       </c>
       <c r="G70">
-        <v>13.34938461976302</v>
+        <v>4841253.02465396</v>
       </c>
       <c r="H70">
-        <v>1644.902561594615</v>
+        <v>3985832.86604921</v>
       </c>
       <c r="I70">
-        <v>-304.3260960374442</v>
+        <v>1115393.389845868</v>
       </c>
       <c r="J70">
-        <v>942.2899849086729</v>
+        <v>4842496.860972811</v>
       </c>
       <c r="K70">
-        <v>3524.422966756056</v>
+        <v>3987338.885753853</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,7 +2892,7 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -2907,22 +2904,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>81.900507416724</v>
+        <v>1116443.165971933</v>
       </c>
       <c r="G71">
-        <v>20.21600837050471</v>
+        <v>4841269.537460751</v>
       </c>
       <c r="H71">
-        <v>1684.232598133477</v>
+        <v>3985867.950397375</v>
       </c>
       <c r="I71">
-        <v>-290.9494490313392</v>
+        <v>1115436.044492184</v>
       </c>
       <c r="J71">
-        <v>906.1988499649742</v>
+        <v>4842448.209350818</v>
       </c>
       <c r="K71">
-        <v>3615.394372337475</v>
+        <v>3987415.451878067</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,7 +2927,7 @@
         <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
@@ -2942,22 +2939,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>77.71993265853899</v>
+        <v>1116438.985146396</v>
       </c>
       <c r="G72">
-        <v>27.08263212124642</v>
+        <v>4841286.050267542</v>
       </c>
       <c r="H72">
-        <v>1719.440895174911</v>
+        <v>3985899.357948966</v>
       </c>
       <c r="I72">
-        <v>-277.2434143989983</v>
+        <v>1115479.749469925</v>
       </c>
       <c r="J72">
-        <v>870.1077150212757</v>
+        <v>4842399.557728823</v>
       </c>
       <c r="K72">
-        <v>3688.367012226937</v>
+        <v>3987476.869333083</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,7 +2962,7 @@
         <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
@@ -2977,22 +2974,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>74.11877536276734</v>
+        <v>1116435.383773078</v>
       </c>
       <c r="G73">
-        <v>33.94925587198811</v>
+        <v>4841302.563074333</v>
       </c>
       <c r="H73">
-        <v>1751.309995867819</v>
+        <v>3985927.786771383</v>
       </c>
       <c r="I73">
-        <v>-263.1998812731566</v>
+        <v>1115524.530642534</v>
       </c>
       <c r="J73">
-        <v>834.0165800775771</v>
+        <v>4842350.906106828</v>
       </c>
       <c r="K73">
-        <v>3743.340886424442</v>
+        <v>3987523.1381189</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,7 +2997,7 @@
         <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -3012,22 +3009,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>70.9747789655154</v>
+        <v>1116432.239588083</v>
       </c>
       <c r="G74">
-        <v>40.8158796227298</v>
+        <v>4841319.075881124</v>
       </c>
       <c r="H74">
-        <v>1780.418780468382</v>
+        <v>3985953.753254597</v>
       </c>
       <c r="I74">
-        <v>-248.8105390639048</v>
+        <v>1115570.414510321</v>
       </c>
       <c r="J74">
-        <v>797.9254451338786</v>
+        <v>4842302.254484834</v>
       </c>
       <c r="K74">
-        <v>3780.315994929992</v>
+        <v>3987554.258235519</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,7 +3032,7 @@
         <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
@@ -3047,22 +3044,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>68.19892730033067</v>
+        <v>1116429.463569903</v>
       </c>
       <c r="G75">
-        <v>47.6825033734715</v>
+        <v>4841335.588687914</v>
       </c>
       <c r="H75">
-        <v>1807.207532036346</v>
+        <v>3985977.650152988</v>
       </c>
       <c r="I75">
-        <v>-234.0668725407021</v>
+        <v>1115617.42822614</v>
       </c>
       <c r="J75">
-        <v>761.8343101901802</v>
+        <v>4842253.60286284</v>
       </c>
       <c r="K75">
-        <v>3799.292337743584</v>
+        <v>3987570.229682939</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,7 +3067,7 @@
         <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -3082,22 +3079,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>65.724680457874</v>
+        <v>1116426.989174638</v>
       </c>
       <c r="G76">
-        <v>54.5491271242132</v>
+        <v>4841352.101494705</v>
       </c>
       <c r="H76">
-        <v>1832.018929338801</v>
+        <v>3985999.783153057</v>
       </c>
       <c r="I76">
-        <v>-218.96015679329</v>
+        <v>1115665.599611459</v>
       </c>
       <c r="J76">
-        <v>725.7431752464815</v>
+        <v>4842204.951240846</v>
       </c>
       <c r="K76">
-        <v>3800.26991486522</v>
+        <v>3987571.052461161</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,7 +3102,7 @@
         <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -3117,22 +3114,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>63.50117891459881</v>
+        <v>1116424.765539714</v>
       </c>
       <c r="G77">
-        <v>61.4157508749549</v>
+        <v>4841368.614301497</v>
       </c>
       <c r="H77">
-        <v>1855.124922129922</v>
+        <v>3986020.394847505</v>
       </c>
       <c r="I77">
-        <v>-203.4814520685216</v>
+        <v>1115714.957172824</v>
       </c>
       <c r="J77">
-        <v>689.652040302783</v>
+        <v>4842156.29961885</v>
       </c>
       <c r="K77">
-        <v>3783.248726294899</v>
+        <v>3987556.726570184</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,7 +3137,7 @@
         <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -3152,22 +3149,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>61.48879787576951</v>
+        <v>1116422.753037959</v>
       </c>
       <c r="G78">
-        <v>68.2823746256966</v>
+        <v>4841385.127108287</v>
       </c>
       <c r="H78">
-        <v>1876.744949095975</v>
+        <v>3986039.680986552</v>
       </c>
       <c r="I78">
-        <v>-187.6215984800529</v>
+        <v>1115765.530118731</v>
       </c>
       <c r="J78">
-        <v>653.5609053590846</v>
+        <v>4842107.647996856</v>
       </c>
       <c r="K78">
-        <v>3748.228772032623</v>
+        <v>3987527.252010009</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,7 +3172,7 @@
         <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
@@ -3187,22 +3184,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>59.65614918512451</v>
+        <v>1116420.920279334</v>
       </c>
       <c r="G79">
-        <v>75.1489983764383</v>
+        <v>4841401.639915078</v>
       </c>
       <c r="H79">
-        <v>1897.058643404299</v>
+        <v>3986057.801811914</v>
       </c>
       <c r="I79">
-        <v>-171.371210587766</v>
+        <v>1115817.348376903</v>
       </c>
       <c r="J79">
-        <v>617.4697704153859</v>
+        <v>4842058.996374862</v>
       </c>
       <c r="K79">
-        <v>3695.210052078389</v>
+        <v>3987482.628780636</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,7 +3207,7 @@
         <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
@@ -3222,22 +3219,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>57.97800543566932</v>
+        <v>1116419.242034918</v>
       </c>
       <c r="G80">
-        <v>82.01562212717998</v>
+        <v>4841418.152721869</v>
       </c>
       <c r="H80">
-        <v>1916.214913682557</v>
+        <v>3986074.890157493</v>
       </c>
       <c r="I80">
-        <v>-154.7206718437143</v>
+        <v>1115870.442612012</v>
       </c>
       <c r="J80">
-        <v>581.3786354716874</v>
+        <v>4842010.344752867</v>
       </c>
       <c r="K80">
-        <v>3624.192566432199</v>
+        <v>3987422.856882064</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,7 +3242,7 @@
         <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -3257,22 +3254,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>56.43382908645285</v>
+        <v>1116417.697765939</v>
       </c>
       <c r="G81">
-        <v>88.88224587792169</v>
+        <v>4841434.66552866</v>
       </c>
       <c r="H81">
-        <v>1934.338574535236</v>
+        <v>3986091.05736412</v>
       </c>
       <c r="I81">
-        <v>-137.6601289013052</v>
+        <v>1115924.844243814</v>
       </c>
       <c r="J81">
-        <v>545.2875005279889</v>
+        <v>4841961.693130872</v>
       </c>
       <c r="K81">
-        <v>3535.176315094053</v>
+        <v>3987347.936314293</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,7 +3277,7 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
@@ -3292,22 +3289,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>55.00670884775784</v>
+        <v>1116416.270560091</v>
       </c>
       <c r="G82">
-        <v>95.7488696286634</v>
+        <v>4841451.178335451</v>
       </c>
       <c r="H82">
-        <v>1951.535279625201</v>
+        <v>3986106.397680116</v>
       </c>
       <c r="I82">
-        <v>-120.1794857843507</v>
+        <v>1115980.58546575</v>
       </c>
       <c r="J82">
-        <v>509.1963655842903</v>
+        <v>4841913.041508879</v>
       </c>
       <c r="K82">
-        <v>3428.16129806395</v>
+        <v>3987257.867077325</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,7 +3312,7 @@
         <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -3327,22 +3324,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>53.68257654400435</v>
+        <v>1116414.946348357</v>
       </c>
       <c r="G83">
-        <v>102.6154933794051</v>
+        <v>4841467.691142241</v>
       </c>
       <c r="H83">
-        <v>1967.895253478075</v>
+        <v>3986120.991590246</v>
       </c>
       <c r="I83">
-        <v>-102.2683979125381</v>
+        <v>1116037.699263996</v>
       </c>
       <c r="J83">
-        <v>473.1052306405917</v>
+        <v>4841864.389886884</v>
       </c>
       <c r="K83">
-        <v>3303.14751534189</v>
+        <v>3987152.649171157</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,7 +3347,7 @@
         <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -3362,22 +3359,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>52.44962109774701</v>
+        <v>1116413.71331895</v>
       </c>
       <c r="G84">
-        <v>109.4821171301468</v>
+        <v>4841484.203949032</v>
       </c>
       <c r="H84">
-        <v>1983.496156800981</v>
+        <v>3986134.908371719</v>
       </c>
       <c r="I84">
-        <v>-83.91626597978079</v>
+        <v>1116096.21943698</v>
       </c>
       <c r="J84">
-        <v>437.0140956968933</v>
+        <v>4841815.738264889</v>
       </c>
       <c r="K84">
-        <v>3160.134966927874</v>
+        <v>3987032.282595791</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,7 +3382,7 @@
         <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
@@ -3397,22 +3394,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>51.29784359611938</v>
+        <v>1116412.561472357</v>
       </c>
       <c r="G85">
-        <v>116.3487408808885</v>
+        <v>4841500.716755823</v>
       </c>
       <c r="H85">
-        <v>1998.405316066095</v>
+        <v>3986148.208083099</v>
       </c>
       <c r="I85">
-        <v>-65.11222968183118</v>
+        <v>1116156.180615386</v>
       </c>
       <c r="J85">
-        <v>400.9229607531947</v>
+        <v>4841767.086642895</v>
       </c>
       <c r="K85">
-        <v>2999.123652821901</v>
+        <v>3986896.767351227</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,7 +3417,7 @@
         <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
@@ -3432,22 +3429,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>50.2187150029528</v>
+        <v>1116411.48227903</v>
       </c>
       <c r="G86">
-        <v>123.2153646316302</v>
+        <v>4841517.229562614</v>
       </c>
       <c r="H86">
-        <v>2012.681479453974</v>
+        <v>3986160.943130681</v>
       </c>
       <c r="I86">
-        <v>-45.84516128944063</v>
+        <v>1116217.618282648</v>
       </c>
       <c r="J86">
-        <v>364.8318258094963</v>
+        <v>4841718.4350209</v>
       </c>
       <c r="K86">
-        <v>2820.113573023973</v>
+        <v>3986746.103437464</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,7 +3452,7 @@
         <v>61</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
@@ -3467,22 +3464,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>49.20490967069849</v>
+        <v>1116410.468412883</v>
       </c>
       <c r="G87">
-        <v>130.0819883823719</v>
+        <v>4841533.742369405</v>
       </c>
       <c r="H87">
-        <v>2026.376214992759</v>
+        <v>3986173.159515713</v>
       </c>
       <c r="I87">
-        <v>-26.10365906326533</v>
+        <v>1116280.568795943</v>
       </c>
       <c r="J87">
-        <v>328.7406908657977</v>
+        <v>4841669.783398907</v>
       </c>
       <c r="K87">
-        <v>2623.104727534087</v>
+        <v>3986580.290854503</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,7 +3487,7 @@
         <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
@@ -3502,22 +3499,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>48.25009559075642</v>
+        <v>1116409.513541527</v>
       </c>
       <c r="G88">
-        <v>136.9486121331136</v>
+        <v>4841550.255176195</v>
       </c>
       <c r="H88">
-        <v>2039.535034968624</v>
+        <v>3986184.897837415</v>
       </c>
       <c r="I88">
-        <v>-5.876040506619582</v>
+        <v>1116345.069407715</v>
       </c>
       <c r="J88">
-        <v>292.6495559220991</v>
+        <v>4841621.131776911</v>
       </c>
       <c r="K88">
-        <v>2408.097116352245</v>
+        <v>3986399.329602343</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,7 +3522,7 @@
         <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
@@ -3537,22 +3534,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>47.34876764334872</v>
+        <v>1116408.612159512</v>
       </c>
       <c r="G89">
-        <v>143.8152358838553</v>
+        <v>4841566.767982987</v>
       </c>
       <c r="H89">
-        <v>2052.198308500548</v>
+        <v>3986196.194107051</v>
       </c>
       <c r="I89">
-        <v>14.84966454791578</v>
+        <v>1116411.158287713</v>
       </c>
       <c r="J89">
-        <v>256.5584209784006</v>
+        <v>4841572.480154918</v>
       </c>
       <c r="K89">
-        <v>2175.090739478447</v>
+        <v>3986203.219680985</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,7 +3557,7 @@
         <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
@@ -3572,22 +3569,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>46.49611380735784</v>
+        <v>1116407.759454528</v>
       </c>
       <c r="G90">
-        <v>150.681859634597</v>
+        <v>4841583.280789778</v>
       </c>
       <c r="H90">
-        <v>2064.402008436547</v>
+        <v>3986207.080414187</v>
       </c>
       <c r="I90">
-        <v>36.08572102212002</v>
+        <v>1116478.87454558</v>
       </c>
       <c r="J90">
-        <v>220.4672860347021</v>
+        <v>4841523.828532923</v>
       </c>
       <c r="K90">
-        <v>1924.085596912692</v>
+        <v>3985991.961090429</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,7 +3592,7 @@
         <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
@@ -3607,22 +3604,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>45.68790690048281</v>
+        <v>1116406.951199139</v>
       </c>
       <c r="G91">
-        <v>157.5484833853387</v>
+        <v>4841599.793596569</v>
       </c>
       <c r="H91">
-        <v>2076.178327405097</v>
+        <v>3986217.58547625</v>
       </c>
       <c r="I91">
-        <v>57.844695850188</v>
+        <v>1116548.258253999</v>
       </c>
       <c r="J91">
-        <v>184.3761510910036</v>
+        <v>4841475.176910928</v>
       </c>
       <c r="K91">
-        <v>1655.081688654981</v>
+        <v>3985765.553830673</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,7 +3627,7 @@
         <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
@@ -3642,22 +3639,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>44.92041628707083</v>
+        <v>1116406.183662486</v>
       </c>
       <c r="G92">
-        <v>164.4151071360804</v>
+        <v>4841616.306403359</v>
       </c>
       <c r="H92">
-        <v>2087.556189599556</v>
+        <v>3986227.735095059</v>
       </c>
       <c r="I92">
-        <v>80.13946541550716</v>
+        <v>1116619.350472406</v>
       </c>
       <c r="J92">
-        <v>148.285016147305</v>
+        <v>4841426.525288934</v>
       </c>
       <c r="K92">
-        <v>1368.079014705313</v>
+        <v>3985523.99790172</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,7 +3662,7 @@
         <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>15</v>
@@ -3677,22 +3674,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>44.19033534366884</v>
+        <v>1116405.453537748</v>
       </c>
       <c r="G93">
-        <v>171.2817308868221</v>
+        <v>4841632.81921015</v>
       </c>
       <c r="H93">
-        <v>2098.561678780762</v>
+        <v>3986237.552538625</v>
       </c>
       <c r="I93">
-        <v>102.9832231705606</v>
+        <v>1116692.193271288</v>
       </c>
       <c r="J93">
-        <v>112.1938812036064</v>
+        <v>4841377.873666939</v>
       </c>
       <c r="K93">
-        <v>1063.077575063688</v>
+        <v>3985267.293303568</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,7 +3697,7 @@
         <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
         <v>15</v>
@@ -3712,22 +3709,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>43.49472146404474</v>
+        <v>1116404.757882141</v>
       </c>
       <c r="G94">
-        <v>178.1483546375638</v>
+        <v>4841649.332016941</v>
       </c>
       <c r="H94">
-        <v>2109.218398435956</v>
+        <v>3986247.058862431</v>
       </c>
       <c r="I94">
-        <v>126.3894874444601</v>
+        <v>1116766.829757078</v>
       </c>
       <c r="J94">
-        <v>76.102746259908</v>
+        <v>4841329.222044946</v>
       </c>
       <c r="K94">
-        <v>740.0773697301076</v>
+        <v>3984995.440036218</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,7 +3732,7 @@
         <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
@@ -3747,22 +3744,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>42.83094612051775</v>
+        <v>1116404.094066979</v>
       </c>
       <c r="G95">
-        <v>185.0149783883055</v>
+        <v>4841665.844823732</v>
       </c>
       <c r="H95">
-        <v>2119.547776603357</v>
+        <v>3986256.273181355</v>
       </c>
       <c r="I95">
-        <v>150.3721094427366</v>
+        <v>1116843.304097666</v>
       </c>
       <c r="J95">
-        <v>40.0116113162094</v>
+        <v>4841280.570422951</v>
       </c>
       <c r="K95">
-        <v>399.0783987045697</v>
+        <v>3984708.438099668</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,7 +3767,7 @@
         <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
@@ -3782,22 +3779,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>42.19665304890145</v>
+        <v>1116403.459735858</v>
       </c>
       <c r="G96">
-        <v>191.8816021390472</v>
+        <v>4841682.357630523</v>
       </c>
       <c r="H96">
-        <v>2129.569325260771</v>
+        <v>3986265.21290105</v>
       </c>
       <c r="I96">
-        <v>174.9452814441127</v>
+        <v>1116921.661548537</v>
       </c>
       <c r="J96">
-        <v>3.920476372510808</v>
+        <v>4841231.918800956</v>
       </c>
       <c r="K96">
-        <v>40.08066198707556</v>
+        <v>3984406.287493921</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,7 +3802,7 @@
         <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
@@ -3817,22 +3814,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>41.58972304053969</v>
+        <v>1116402.852769442</v>
       </c>
       <c r="G97">
-        <v>198.7482258897888</v>
+        <v>4841698.870437314</v>
       </c>
       <c r="H97">
-        <v>2139.300862170537</v>
+        <v>3986273.893915846</v>
       </c>
       <c r="I97">
-        <v>200.1235451991189</v>
+        <v>1117001.948479547</v>
       </c>
       <c r="J97">
-        <v>-32.17065857118762</v>
+        <v>4841183.267178962</v>
       </c>
       <c r="K97">
-        <v>-336.915840422374</v>
+        <v>3984088.988218976</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,7 +3837,7 @@
         <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
         <v>15</v>
@@ -3852,22 +3849,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>41.00824414238242</v>
+        <v>1116402.271255663</v>
       </c>
       <c r="G98">
-        <v>205.6148496405305</v>
+        <v>4841715.383244105</v>
       </c>
       <c r="H98">
-        <v>2148.758701518615</v>
+        <v>3986282.330778808</v>
       </c>
       <c r="I98">
-        <v>225.9218005355143</v>
+        <v>1117084.212402371</v>
       </c>
       <c r="J98">
-        <v>-68.26179351488622</v>
+        <v>4841134.615556967</v>
       </c>
       <c r="K98">
-        <v>-731.9111085237812</v>
+        <v>3983756.540274831</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,7 +3872,7 @@
         <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>15</v>
@@ -3887,22 +3884,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>40.45048631025374</v>
+        <v>1116401.713464373</v>
       </c>
       <c r="G99">
-        <v>212.4814733912723</v>
+        <v>4841731.896050895</v>
       </c>
       <c r="H99">
-        <v>2157.957818471493</v>
+        <v>3986290.53684853</v>
       </c>
       <c r="I99">
-        <v>252.3553141756088</v>
+        <v>1117168.501998613</v>
       </c>
       <c r="J99">
-        <v>-104.3529284585848</v>
+        <v>4841085.963934973</v>
       </c>
       <c r="K99">
-        <v>-1144.905142317146</v>
+        <v>3983408.943661489</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,7 +3907,7 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
@@ -3922,22 +3919,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>39.91487974981052</v>
+        <v>1116401.177825683</v>
       </c>
       <c r="G100">
-        <v>219.348097142014</v>
+        <v>4841748.408857686</v>
       </c>
       <c r="H100">
-        <v>2166.911991819202</v>
+        <v>3986298.524416376</v>
       </c>
       <c r="I100">
-        <v>279.4397287707041</v>
+        <v>1117254.867148617</v>
       </c>
       <c r="J100">
-        <v>-140.4440634022834</v>
+        <v>4841037.312312978</v>
       </c>
       <c r="K100">
-        <v>-1575.897941802466</v>
+        <v>3983046.198378948</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,7 +3942,7 @@
         <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
@@ -3957,22 +3954,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>39.39999632757976</v>
+        <v>1116400.662911375</v>
       </c>
       <c r="G101">
-        <v>226.2147208927556</v>
+        <v>4841764.921664477</v>
       </c>
       <c r="H101">
-        <v>2175.633928115706</v>
+        <v>3986306.304817225</v>
       </c>
       <c r="I101">
-        <v>307.1910721579988</v>
+        <v>1117343.358960986</v>
       </c>
       <c r="J101">
-        <v>-176.5351983459817</v>
+        <v>4840988.660690984</v>
       </c>
       <c r="K101">
-        <v>-2024.88950697974</v>
+        <v>3982668.304427208</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,7 +3977,7 @@
         <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>15</v>
@@ -3992,22 +3989,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>38.90453355079634</v>
+        <v>1116400.167418877</v>
       </c>
       <c r="G102">
-        <v>233.0813446434973</v>
+        <v>4841781.434471267</v>
       </c>
       <c r="H102">
-        <v>2184.135370124</v>
+        <v>3986313.888526206</v>
       </c>
       <c r="I102">
-        <v>335.6257668454382</v>
+        <v>1117434.029802824</v>
       </c>
       <c r="J102">
-        <v>-212.6263332896803</v>
+        <v>4840940.00906899</v>
       </c>
       <c r="K102">
-        <v>-2491.879837848973</v>
+        <v>3982275.26180627</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,7 +4012,7 @@
         <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>15</v>
@@ -4027,22 +4024,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>38.42730070687099</v>
+        <v>1116399.690157405</v>
       </c>
       <c r="G103">
-        <v>239.947968394239</v>
+        <v>4841797.947278059</v>
       </c>
       <c r="H103">
-        <v>2192.427191888572</v>
+        <v>3986321.285243507</v>
       </c>
       <c r="I103">
-        <v>364.7606397301162</v>
+        <v>1117526.933330725</v>
       </c>
       <c r="J103">
-        <v>-248.7174682333789</v>
+        <v>4840891.357446995</v>
       </c>
       <c r="K103">
-        <v>-2976.868934410163</v>
+        <v>3981867.070516133</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,7 +4047,7 @@
         <v>61</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
@@ -4062,22 +4059,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>37.96720682670866</v>
+        <v>1116399.230035926</v>
       </c>
       <c r="G104">
-        <v>246.8145921449807</v>
+        <v>4841814.46008485</v>
       </c>
       <c r="H104">
-        <v>2200.519482366525</v>
+        <v>3986328.503968979</v>
       </c>
       <c r="I104">
-        <v>394.6129320559879</v>
+        <v>1117622.124522533</v>
       </c>
       <c r="J104">
-        <v>-284.8086031770775</v>
+        <v>4840842.705825001</v>
       </c>
       <c r="K104">
-        <v>-3479.85679666331</v>
+        <v>3981443.730556798</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,7 +4082,7 @@
         <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
@@ -4097,22 +4094,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>37.52325019492181</v>
+        <v>1116398.786052662</v>
       </c>
       <c r="G105">
-        <v>253.6812158957224</v>
+        <v>4841830.972891641</v>
       </c>
       <c r="H105">
-        <v>2208.421619230848</v>
+        <v>3986335.553067973</v>
       </c>
       <c r="I105">
-        <v>425.200309616779</v>
+        <v>1117719.659709863</v>
       </c>
       <c r="J105">
-        <v>-320.8997381207761</v>
+        <v>4840794.054203006</v>
       </c>
       <c r="K105">
-        <v>-4000.843424608413</v>
+        <v>3981005.241928264</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,7 +4117,7 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
@@ -4132,22 +4129,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>37.09450917739136</v>
+        <v>1116398.357285926</v>
       </c>
       <c r="G106">
-        <v>260.5478396464641</v>
+        <v>4841847.485698432</v>
       </c>
       <c r="H106">
-        <v>2216.142334199971</v>
+        <v>3986342.440329615</v>
       </c>
       <c r="I106">
-        <v>456.5408732101326</v>
+        <v>1117819.596611451</v>
       </c>
       <c r="J106">
-        <v>-356.9908730644743</v>
+        <v>4840745.402581012</v>
       </c>
       <c r="K106">
-        <v>-4539.828818245468</v>
+        <v>3980551.604630533</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,7 +4152,7 @@
         <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
@@ -4167,22 +4164,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>36.68013417505143</v>
+        <v>1116397.942886066</v>
       </c>
       <c r="G107">
-        <v>267.4144633972058</v>
+        <v>4841863.998505223</v>
       </c>
       <c r="H107">
-        <v>2223.689771034944</v>
+        <v>3986349.173018547</v>
       </c>
       <c r="I107">
-        <v>488.6531693491832</v>
+        <v>1117921.994367301</v>
       </c>
       <c r="J107">
-        <v>-393.0820080081729</v>
+        <v>4840696.750959017</v>
       </c>
       <c r="K107">
-        <v>-5096.812977574484</v>
+        <v>3980082.818663603</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,7 +4187,7 @@
         <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
@@ -4202,22 +4199,22 @@
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G108">
-        <v>-88.00805277392756</v>
+        <v>4841111.527732036</v>
       </c>
       <c r="H108">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I108">
-        <v>-1254.839921935768</v>
+        <v>1114860.419429461</v>
       </c>
       <c r="J108">
-        <v>2454.783313566921</v>
+        <v>4843217.182622025</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984369.193617534</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,7 +4222,7 @@
         <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -4237,22 +4234,22 @@
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G109">
-        <v>-88.00805277392756</v>
+        <v>4841111.527732036</v>
       </c>
       <c r="H109">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I109">
-        <v>-1230.066040567669</v>
+        <v>1114890.033401009</v>
       </c>
       <c r="J109">
-        <v>2395.068760077657</v>
+        <v>4843168.531094986</v>
       </c>
       <c r="K109">
-        <v>343.2271839284883</v>
+        <v>3984672.989523537</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,7 +4257,7 @@
         <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -4272,22 +4269,22 @@
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G110">
-        <v>-88.00805277392756</v>
+        <v>4841111.527732036</v>
       </c>
       <c r="H110">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I110">
-        <v>-1204.682125162434</v>
+        <v>1114920.376589362</v>
       </c>
       <c r="J110">
-        <v>2335.354206588393</v>
+        <v>4843119.879567945</v>
       </c>
       <c r="K110">
-        <v>669.3394871693722</v>
+        <v>3984961.636773117</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,7 +4292,7 @@
         <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
@@ -4307,22 +4304,22 @@
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G111">
-        <v>-88.00805277392756</v>
+        <v>4841111.527732036</v>
       </c>
       <c r="H111">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I111">
-        <v>-1178.673154193119</v>
+        <v>1114951.466950813</v>
       </c>
       <c r="J111">
-        <v>2275.639653099128</v>
+        <v>4843071.228040907</v>
       </c>
       <c r="K111">
-        <v>978.336909722654</v>
+        <v>3985235.135366274</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,7 +4327,7 @@
         <v>61</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
@@ -4342,22 +4339,22 @@
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G112">
-        <v>-88.00805277392756</v>
+        <v>4841111.527732036</v>
       </c>
       <c r="H112">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I112">
-        <v>-1152.0237362415</v>
+        <v>1114983.322883812</v>
       </c>
       <c r="J112">
-        <v>2215.925099609864</v>
+        <v>4843022.576513867</v>
       </c>
       <c r="K112">
-        <v>1270.219451588332</v>
+        <v>3985493.485303006</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,7 +4362,7 @@
         <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
@@ -4377,22 +4374,22 @@
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G113">
-        <v>-88.00805277392756</v>
+        <v>4841111.527732036</v>
       </c>
       <c r="H113">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I113">
-        <v>-1124.718100889836</v>
+        <v>1115015.963239854</v>
       </c>
       <c r="J113">
-        <v>2156.2105461206</v>
+        <v>4842973.924986828</v>
       </c>
       <c r="K113">
-        <v>1544.987112766408</v>
+        <v>3985736.686583315</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,7 +4397,7 @@
         <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
@@ -4412,22 +4409,22 @@
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G114">
-        <v>-88.00805277392756</v>
+        <v>4841111.527732036</v>
       </c>
       <c r="H114">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I114">
-        <v>-1096.740089388362</v>
+        <v>1115049.407334635</v>
       </c>
       <c r="J114">
-        <v>2096.495992631335</v>
+        <v>4842925.273459787</v>
       </c>
       <c r="K114">
-        <v>1802.639893256881</v>
+        <v>3985964.739207199</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,7 +4432,7 @@
         <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
@@ -4447,22 +4444,22 @@
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G115">
-        <v>-88.00805277392756</v>
+        <v>4841111.527732036</v>
       </c>
       <c r="H115">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I115">
-        <v>-1068.073145092962</v>
+        <v>1115083.674959482</v>
       </c>
       <c r="J115">
-        <v>2036.781439142071</v>
+        <v>4842876.621932749</v>
       </c>
       <c r="K115">
-        <v>2043.17779305975</v>
+        <v>3986177.64317466</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,7 +4467,7 @@
         <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
@@ -4482,22 +4479,22 @@
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>195.8738076579907</v>
+        <v>1116578.67208927</v>
       </c>
       <c r="G116">
-        <v>-73.47544599724442</v>
+        <v>4841128.040506784</v>
       </c>
       <c r="H116">
-        <v>1103.676598818086</v>
+        <v>3985225.545306774</v>
       </c>
       <c r="I116">
-        <v>-1038.700303667394</v>
+        <v>1115118.786393065</v>
       </c>
       <c r="J116">
-        <v>1977.066885652806</v>
+        <v>4842827.970405709</v>
       </c>
       <c r="K116">
-        <v>2266.600812175016</v>
+        <v>3986375.398485697</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,7 +4502,7 @@
         <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -4517,22 +4514,22 @@
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>152.0209246873453</v>
+        <v>1116529.991518165</v>
       </c>
       <c r="G117">
-        <v>-58.94283922056128</v>
+        <v>4841144.55328153</v>
       </c>
       <c r="H117">
-        <v>1359.722143042446</v>
+        <v>3985424.799574401</v>
       </c>
       <c r="I117">
-        <v>-1008.604183044239</v>
+        <v>1115154.762413399</v>
       </c>
       <c r="J117">
-        <v>1917.352332163542</v>
+        <v>4842779.31887867</v>
       </c>
       <c r="K117">
-        <v>2472.908950602678</v>
+        <v>3986558.005140311</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,7 +4537,7 @@
         <v>61</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
@@ -4552,22 +4549,22 @@
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>126.259555840176</v>
+        <v>1116501.394124722</v>
       </c>
       <c r="G118">
-        <v>-44.41023244387815</v>
+        <v>4841161.066056277</v>
       </c>
       <c r="H118">
-        <v>1512.235963848735</v>
+        <v>3985543.48560645</v>
       </c>
       <c r="I118">
-        <v>-977.7669731386629</v>
+        <v>1115191.624310136</v>
       </c>
       <c r="J118">
-        <v>1857.637778674278</v>
+        <v>4842730.66735163</v>
       </c>
       <c r="K118">
-        <v>2662.102208342739</v>
+        <v>3986725.463138501</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,7 +4572,7 @@
         <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
@@ -4587,22 +4584,22 @@
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>109.9970898742017</v>
+        <v>1116483.34135197</v>
       </c>
       <c r="G119">
-        <v>-29.87762566719501</v>
+        <v>4841177.578831024</v>
       </c>
       <c r="H119">
-        <v>1621.227283563909</v>
+        <v>3985628.302491873</v>
       </c>
       <c r="I119">
-        <v>-946.1704253088741</v>
+        <v>1115229.393897167</v>
       </c>
       <c r="J119">
-        <v>1797.923225185014</v>
+        <v>4842682.015824591</v>
       </c>
       <c r="K119">
-        <v>2834.180585395196</v>
+        <v>3986877.772480267</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,7 +4607,7 @@
         <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -4622,22 +4619,22 @@
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>98.655712122756</v>
+        <v>1116470.751421533</v>
       </c>
       <c r="G120">
-        <v>-15.34501889051187</v>
+        <v>4841194.09160577</v>
       </c>
       <c r="H120">
-        <v>1706.098765833972</v>
+        <v>3985694.34935511</v>
       </c>
       <c r="I120">
-        <v>-913.7958415570681</v>
+        <v>1115268.093525532</v>
       </c>
       <c r="J120">
-        <v>1738.208671695749</v>
+        <v>4842633.364297551</v>
       </c>
       <c r="K120">
-        <v>2989.144081760051</v>
+        <v>3987014.933165609</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,7 +4642,7 @@
         <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
@@ -4657,22 +4654,22 @@
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>90.1947046846653</v>
+        <v>1116461.358956402</v>
       </c>
       <c r="G121">
-        <v>-0.812412113828744</v>
+        <v>4841210.604380517</v>
       </c>
       <c r="H121">
-        <v>1775.615093045392</v>
+        <v>3985748.446859165</v>
       </c>
       <c r="I121">
-        <v>-880.6240634644449</v>
+        <v>1115307.746096642</v>
       </c>
       <c r="J121">
-        <v>1678.494118206485</v>
+        <v>4842584.712770512</v>
       </c>
       <c r="K121">
-        <v>3126.992697437301</v>
+        <v>3987136.945194527</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,7 +4677,7 @@
         <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
@@ -4692,22 +4689,22 @@
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>83.57937841273807</v>
+        <v>1116454.015360288</v>
       </c>
       <c r="G122">
-        <v>13.7201946628544</v>
+        <v>4841227.117155264</v>
       </c>
       <c r="H122">
-        <v>1834.490347747525</v>
+        <v>3985794.263496172</v>
       </c>
       <c r="I122">
-        <v>-846.6354608537671</v>
+        <v>1115348.375075837</v>
       </c>
       <c r="J122">
-        <v>1618.77956471722</v>
+        <v>4842536.061243472</v>
       </c>
       <c r="K122">
-        <v>3247.726432426949</v>
+        <v>3987243.808567022</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,7 +4712,7 @@
         <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
@@ -4727,22 +4724,22 @@
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>78.22709778104887</v>
+        <v>1116448.073856327</v>
       </c>
       <c r="G123">
-        <v>28.25280143953754</v>
+        <v>4841243.629930011</v>
       </c>
       <c r="H123">
-        <v>1885.553908419733</v>
+        <v>3985834.001084322</v>
       </c>
       <c r="I123">
-        <v>-811.8099201727421</v>
+        <v>1115390.004506266</v>
       </c>
       <c r="J123">
-        <v>1559.065011227956</v>
+        <v>4842487.409716433</v>
       </c>
       <c r="K123">
-        <v>3351.345286728994</v>
+        <v>3987335.523283092</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,7 +4747,7 @@
         <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
@@ -4762,22 +4759,22 @@
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>73.78279773231849</v>
+        <v>1116443.140290963</v>
       </c>
       <c r="G124">
-        <v>42.78540821622067</v>
+        <v>4841260.142704758</v>
       </c>
       <c r="H124">
-        <v>1930.637979565108</v>
+        <v>3985869.085442477</v>
       </c>
       <c r="I124">
-        <v>-776.1268325913571</v>
+        <v>1115432.65902312</v>
       </c>
       <c r="J124">
-        <v>1499.350457738692</v>
+        <v>4842438.758189393</v>
       </c>
       <c r="K124">
-        <v>3437.849260343436</v>
+        <v>3987412.089342739</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,7 +4782,7 @@
         <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4797,22 +4794,22 @@
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>70.01658783304973</v>
+        <v>1116438.959465522</v>
       </c>
       <c r="G125">
-        <v>57.31801499290382</v>
+        <v>4841276.655479505</v>
       </c>
       <c r="H125">
-        <v>1970.997295457305</v>
+        <v>3985900.493003013</v>
       </c>
       <c r="I125">
-        <v>-739.5650818061189</v>
+        <v>1115476.363868211</v>
       </c>
       <c r="J125">
-        <v>1439.635904249427</v>
+        <v>4842390.106662354</v>
       </c>
       <c r="K125">
-        <v>3507.238353270275</v>
+        <v>3987473.506745962</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,7 +4817,7 @@
         <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
@@ -4832,22 +4829,22 @@
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>66.772365437647</v>
+        <v>1116435.358092287</v>
       </c>
       <c r="G126">
-        <v>71.85062176958694</v>
+        <v>4841293.168254252</v>
       </c>
       <c r="H126">
-        <v>2007.528886307938</v>
+        <v>3985928.921833525</v>
       </c>
       <c r="I126">
-        <v>-702.1030315439881</v>
+        <v>1115521.144904905</v>
       </c>
       <c r="J126">
-        <v>1379.921350760163</v>
+        <v>4842341.455135314</v>
       </c>
       <c r="K126">
-        <v>3559.51256550951</v>
+        <v>3987519.775492762</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,7 +4852,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
@@ -4867,22 +4864,22 @@
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>63.9399916518625</v>
+        <v>1116432.213907364</v>
       </c>
       <c r="G127">
-        <v>86.38322854627008</v>
+        <v>4841309.681028998</v>
       </c>
       <c r="H127">
-        <v>2040.896323294438</v>
+        <v>3985954.888324134</v>
       </c>
       <c r="I127">
-        <v>-663.7185127586068</v>
+        <v>1115567.02863343</v>
       </c>
       <c r="J127">
-        <v>1320.206797270899</v>
+        <v>4842292.803608275</v>
       </c>
       <c r="K127">
-        <v>3594.671897061143</v>
+        <v>3987550.895583137</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,7 +4887,7 @@
         <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
@@ -4902,22 +4899,22 @@
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>61.43927329971439</v>
+        <v>1116429.437889248</v>
       </c>
       <c r="G128">
-        <v>100.9158353229532</v>
+        <v>4841326.193803745</v>
       </c>
       <c r="H128">
-        <v>2071.604303450838</v>
+        <v>3985978.78522933</v>
       </c>
       <c r="I128">
-        <v>-624.3888105112451</v>
+        <v>1115614.042206557</v>
       </c>
       <c r="J128">
-        <v>1260.492243781634</v>
+        <v>4842244.152081235</v>
       </c>
       <c r="K128">
-        <v>3612.716347925173</v>
+        <v>3987566.867017089</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,7 +4922,7 @@
         <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
@@ -4937,22 +4934,22 @@
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>59.21026568944493</v>
+        <v>1116426.963494041</v>
       </c>
       <c r="G129">
-        <v>115.4484420996364</v>
+        <v>4841342.706578492</v>
       </c>
       <c r="H129">
-        <v>2100.045639885773</v>
+        <v>3986000.918235702</v>
       </c>
       <c r="I129">
-        <v>-584.0906505287046</v>
+        <v>1115662.21344567</v>
       </c>
       <c r="J129">
-        <v>1200.77769029237</v>
+        <v>4842195.500554197</v>
       </c>
       <c r="K129">
-        <v>3613.645918101599</v>
+        <v>3987567.689794617</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,7 +4957,7 @@
         <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
@@ -4972,22 +4969,22 @@
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>57.20715032667648</v>
+        <v>1116424.739859168</v>
       </c>
       <c r="G130">
-        <v>129.9810488763195</v>
+        <v>4841359.21935324</v>
       </c>
       <c r="H130">
-        <v>2126.532068949985</v>
+        <v>3986021.529936019</v>
       </c>
       <c r="I130">
-        <v>-542.8001854302217</v>
+        <v>1115711.57085723</v>
       </c>
       <c r="J130">
-        <v>1141.063136803106</v>
+        <v>4842146.849027156</v>
       </c>
       <c r="K130">
-        <v>3597.460607590422</v>
+        <v>3987553.363915721</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,7 +4992,7 @@
         <v>61</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
@@ -5007,22 +5004,22 @@
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>55.3942298963694</v>
+        <v>1116422.727357459</v>
       </c>
       <c r="G131">
-        <v>144.5136556530026</v>
+        <v>4841375.732127986</v>
       </c>
       <c r="H131">
-        <v>2151.315133489968</v>
+        <v>3986040.816080559</v>
       </c>
       <c r="I131">
-        <v>-500.4929806152196</v>
+        <v>1115762.143649642</v>
       </c>
       <c r="J131">
-        <v>1081.348583313841</v>
+        <v>4842098.197500116</v>
       </c>
       <c r="K131">
-        <v>3564.160416391643</v>
+        <v>3987523.889380401</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,7 +5027,7 @@
         <v>61</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -5042,22 +5039,22 @@
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>53.7432273333664</v>
+        <v>1116420.894598876</v>
       </c>
       <c r="G132">
-        <v>159.0462624296858</v>
+        <v>4841392.244902733</v>
       </c>
       <c r="H132">
-        <v>2174.600747234997</v>
+        <v>3986058.936911081</v>
       </c>
       <c r="I132">
-        <v>-457.143999803563</v>
+        <v>1115813.961750541</v>
       </c>
       <c r="J132">
-        <v>1021.634029824577</v>
+        <v>4842049.545973077</v>
       </c>
       <c r="K132">
-        <v>3513.74534450526</v>
+        <v>3987479.266188658</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,7 +5062,7 @@
         <v>61</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
@@ -5077,22 +5074,22 @@
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>52.23141568851541</v>
+        <v>1116419.216354498</v>
       </c>
       <c r="G133">
-        <v>173.5788692063689</v>
+        <v>4841408.75767748</v>
       </c>
       <c r="H133">
-        <v>2196.559604335262</v>
+        <v>3986076.025261525</v>
       </c>
       <c r="I133">
-        <v>-412.7275902197505</v>
+        <v>1115867.055824502</v>
       </c>
       <c r="J133">
-        <v>961.9194763353125</v>
+        <v>4842000.894446037</v>
       </c>
       <c r="K133">
-        <v>3446.215391931274</v>
+        <v>3987419.494340491</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,7 +5097,7 @@
         <v>61</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
@@ -5112,22 +5109,22 @@
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>50.84029303456708</v>
+        <v>1116417.672085555</v>
       </c>
       <c r="G134">
-        <v>188.111475983052</v>
+        <v>4841425.270452227</v>
       </c>
       <c r="H134">
-        <v>2217.334779931386</v>
+        <v>3986092.192472756</v>
       </c>
       <c r="I134">
-        <v>-367.2174674122845</v>
+        <v>1115921.45729119</v>
       </c>
       <c r="J134">
-        <v>902.2049228460484</v>
+        <v>4841952.242918998</v>
       </c>
       <c r="K134">
-        <v>3361.570558669685</v>
+        <v>3987344.5738359</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,7 +5132,7 @@
         <v>61</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
@@ -5147,22 +5144,22 @@
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>49.5546242733766</v>
+        <v>1116416.24487974</v>
       </c>
       <c r="G135">
-        <v>202.6440827597352</v>
+        <v>4841441.783226973</v>
       </c>
       <c r="H135">
-        <v>2237.04738495213</v>
+        <v>3986107.532793121</v>
       </c>
       <c r="I135">
-        <v>-320.5866996992292</v>
+        <v>1115977.198343946</v>
       </c>
       <c r="J135">
-        <v>842.4903693567838</v>
+        <v>4841903.591391958</v>
       </c>
       <c r="K135">
-        <v>3259.810844720493</v>
+        <v>3987254.504674886</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,7 +5167,7 @@
         <v>61</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
@@ -5182,22 +5179,22 @@
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>48.36173562078781</v>
+        <v>1116414.920668037</v>
       </c>
       <c r="G136">
-        <v>217.1766895364183</v>
+        <v>4841458.29600172</v>
       </c>
       <c r="H136">
-        <v>2255.800843886516</v>
+        <v>3986122.126707406</v>
       </c>
       <c r="I136">
-        <v>-272.8076922307598</v>
+        <v>1116034.311968845</v>
       </c>
       <c r="J136">
-        <v>782.7758158675194</v>
+        <v>4841854.93986492</v>
       </c>
       <c r="K136">
-        <v>3140.936250083698</v>
+        <v>3987149.286857448</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,7 +5202,7 @@
         <v>61</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
@@ -5217,22 +5214,22 @@
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>47.25098667461474</v>
+        <v>1116413.687638658</v>
       </c>
       <c r="G137">
-        <v>231.7092963131014</v>
+        <v>4841474.808776467</v>
       </c>
       <c r="H137">
-        <v>2273.684179302365</v>
+        <v>3986136.043492843</v>
       </c>
       <c r="I137">
-        <v>-223.8521706592604</v>
+        <v>1116092.831964214</v>
       </c>
       <c r="J137">
-        <v>723.0612623782553</v>
+        <v>4841806.288337879</v>
       </c>
       <c r="K137">
-        <v>3004.9467747593</v>
+        <v>3987028.920383585</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,7 +5237,7 @@
         <v>61</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
@@ -5252,22 +5249,22 @@
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>46.21336958144062</v>
+        <v>1116412.535792091</v>
       </c>
       <c r="G138">
-        <v>246.2419030897846</v>
+        <v>4841491.321551214</v>
       </c>
       <c r="H138">
-        <v>2290.774567620768</v>
+        <v>3986149.34320801</v>
       </c>
       <c r="I138">
-        <v>-173.6911644073168</v>
+        <v>1116152.792960631</v>
       </c>
       <c r="J138">
-        <v>663.3467088889909</v>
+        <v>4841757.63681084</v>
       </c>
       <c r="K138">
-        <v>2851.842418747299</v>
+        <v>3986893.405253299</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,7 +5272,7 @@
         <v>61</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
@@ -5287,22 +5284,22 @@
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>45.24120067518898</v>
+        <v>1116411.456598789</v>
       </c>
       <c r="G139">
-        <v>260.7745098664677</v>
+        <v>4841507.834325961</v>
       </c>
       <c r="H139">
-        <v>2307.139351956174</v>
+        <v>3986162.078259219</v>
       </c>
       <c r="I139">
-        <v>-122.2949895236984</v>
+        <v>1116214.230441422</v>
       </c>
       <c r="J139">
-        <v>603.6321553997267</v>
+        <v>4841708.9852838</v>
       </c>
       <c r="K139">
-        <v>2681.623182047695</v>
+        <v>3986742.741466589</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,7 +5307,7 @@
         <v>61</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
@@ -5322,22 +5319,22 @@
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>44.32788040247</v>
+        <v>1116410.442732665</v>
       </c>
       <c r="G140">
-        <v>275.3071166431508</v>
+        <v>4841524.347100708</v>
       </c>
       <c r="H140">
-        <v>2322.837644805142</v>
+        <v>3986174.294647729</v>
       </c>
       <c r="I140">
-        <v>-69.63323111718471</v>
+        <v>1116277.180763657</v>
       </c>
       <c r="J140">
-        <v>543.9176019104622</v>
+        <v>4841660.333756762</v>
       </c>
       <c r="K140">
-        <v>2494.289064660488</v>
+        <v>3986576.929023455</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,7 +5342,7 @@
         <v>61</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
@@ -5357,22 +5354,22 @@
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>43.46770436260886</v>
+        <v>1116409.487861331</v>
       </c>
       <c r="G141">
-        <v>289.839723419834</v>
+        <v>4841540.859875454</v>
       </c>
       <c r="H141">
-        <v>2337.921616959475</v>
+        <v>3986186.032972774</v>
       </c>
       <c r="I141">
-        <v>-15.67472535784021</v>
+        <v>1116341.681179663</v>
       </c>
       <c r="J141">
-        <v>484.2030484211978</v>
+        <v>4841611.682229721</v>
       </c>
       <c r="K141">
-        <v>2289.840066585677</v>
+        <v>3986395.967923898</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,7 +5377,7 @@
         <v>61</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
@@ -5392,22 +5389,22 @@
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>42.65571308524483</v>
+        <v>1116408.586479337</v>
       </c>
       <c r="G142">
-        <v>304.3723301965172</v>
+        <v>4841557.372650201</v>
       </c>
       <c r="H142">
-        <v>2352.437543591847</v>
+        <v>3986197.329245626</v>
       </c>
       <c r="I142">
-        <v>39.61245896491324</v>
+        <v>1116407.769859073</v>
       </c>
       <c r="J142">
-        <v>424.4884949319336</v>
+        <v>4841563.030702682</v>
       </c>
       <c r="K142">
-        <v>2068.276187823264</v>
+        <v>3986199.858167917</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,7 +5412,7 @@
         <v>61</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
         <v>16</v>
@@ -5427,22 +5424,22 @@
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>41.88757150101145</v>
+        <v>1116407.733774372</v>
       </c>
       <c r="G143">
-        <v>318.9049369732003</v>
+        <v>4841573.885424948</v>
       </c>
       <c r="H143">
-        <v>2366.426660423909</v>
+        <v>3986208.215555863</v>
       </c>
       <c r="I143">
-        <v>96.26103933833748</v>
+        <v>1116475.485911414</v>
       </c>
       <c r="J143">
-        <v>364.7739414426691</v>
+        <v>4841514.379175643</v>
       </c>
       <c r="K143">
-        <v>1829.597428373248</v>
+        <v>3985988.599755512</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,7 +5447,7 @@
         <v>61</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
         <v>16</v>
@@ -5462,22 +5459,22 @@
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>41.15947141205343</v>
+        <v>1116406.925519002</v>
       </c>
       <c r="G144">
-        <v>333.4375437498834</v>
+        <v>4841590.398199694</v>
       </c>
       <c r="H144">
-        <v>2379.925869906821</v>
+        <v>3986218.720620918</v>
       </c>
       <c r="I144">
-        <v>154.3045388877195</v>
+        <v>1116544.869409246</v>
       </c>
       <c r="J144">
-        <v>305.059387953405</v>
+        <v>4841465.727648604</v>
       </c>
       <c r="K144">
-        <v>1573.803788235629</v>
+        <v>3985762.192686683</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,7 +5482,7 @@
         <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
@@ -5497,22 +5494,22 @@
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>40.46805195108846</v>
+        <v>1116406.157982367</v>
       </c>
       <c r="G145">
-        <v>347.9701505265666</v>
+        <v>4841606.910974442</v>
       </c>
       <c r="H145">
-        <v>2392.968327880397</v>
+        <v>3986228.870242617</v>
       </c>
       <c r="I145">
-        <v>213.7773062144639</v>
+        <v>1116615.961411881</v>
       </c>
       <c r="J145">
-        <v>245.3448344641405</v>
+        <v>4841417.076121563</v>
       </c>
       <c r="K145">
-        <v>1300.895267410405</v>
+        <v>3985520.63696143</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,7 +5517,7 @@
         <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
@@ -5532,22 +5529,22 @@
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>39.81033423633534</v>
+        <v>1116405.427857646</v>
       </c>
       <c r="G146">
-        <v>362.5027573032497</v>
+        <v>4841623.423749189</v>
       </c>
       <c r="H146">
-        <v>2405.583934193014</v>
+        <v>3986238.687688978</v>
       </c>
       <c r="I146">
-        <v>274.7145357226874</v>
+        <v>1116688.803989677</v>
       </c>
       <c r="J146">
-        <v>185.630280974876</v>
+        <v>4841368.424594524</v>
       </c>
       <c r="K146">
-        <v>1010.87186589758</v>
+        <v>3985263.932579754</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,7 +5552,7 @@
         <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
         <v>16</v>
@@ -5567,22 +5564,22 @@
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>39.18366732304074</v>
+        <v>1116404.732202054</v>
       </c>
       <c r="G147">
-        <v>377.0353640799328</v>
+        <v>4841639.936523935</v>
       </c>
       <c r="H147">
-        <v>2417.799745552263</v>
+        <v>3986248.194015492</v>
       </c>
       <c r="I147">
-        <v>337.1522884463267</v>
+        <v>1116763.440248937</v>
       </c>
       <c r="J147">
-        <v>125.9157274856119</v>
+        <v>4841319.773067485</v>
       </c>
       <c r="K147">
-        <v>703.7335836971517</v>
+        <v>3984992.079541654</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,7 +5587,7 @@
         <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
         <v>16</v>
@@ -5602,22 +5599,22 @@
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>38.58568321456682</v>
+        <v>1116404.068386908</v>
       </c>
       <c r="G148">
-        <v>391.5679708566159</v>
+        <v>4841656.449298683</v>
       </c>
       <c r="H148">
-        <v>2429.640324945737</v>
+        <v>3986257.40833704</v>
       </c>
       <c r="I148">
-        <v>401.1275133891077</v>
+        <v>1116839.914357417</v>
       </c>
       <c r="J148">
-        <v>66.20117399634742</v>
+        <v>4841271.121540446</v>
       </c>
       <c r="K148">
-        <v>379.4804208091196</v>
+        <v>3984705.07784713</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,7 +5622,7 @@
         <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
         <v>16</v>
@@ -5637,22 +5634,22 @@
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>38.01425919190539</v>
+        <v>1116403.434055802</v>
       </c>
       <c r="G149">
-        <v>406.1005776332991</v>
+        <v>4841672.962073429</v>
       </c>
       <c r="H149">
-        <v>2441.128038978528</v>
+        <v>3986266.348059281</v>
       </c>
       <c r="I149">
-        <v>466.6780693899765</v>
+        <v>1116918.271570464</v>
       </c>
       <c r="J149">
-        <v>6.486620507082971</v>
+        <v>4841222.470013405</v>
       </c>
       <c r="K149">
-        <v>38.11237723348456</v>
+        <v>3984402.927496183</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,7 +5657,7 @@
         <v>61</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
         <v>16</v>
@@ -5672,22 +5669,22 @@
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>37.4674860954119</v>
+        <v>1116402.8270894</v>
       </c>
       <c r="G150">
-        <v>420.6331844099822</v>
+        <v>4841689.474848175</v>
       </c>
       <c r="H150">
-        <v>2452.283312174377</v>
+        <v>3986275.029076548</v>
       </c>
       <c r="I150">
-        <v>533.8427475269604</v>
+        <v>1116998.558257795</v>
       </c>
       <c r="J150">
-        <v>-53.2279329821812</v>
+        <v>4841173.818486366</v>
       </c>
       <c r="K150">
-        <v>-320.3705470297525</v>
+        <v>3984085.628488811</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,7 +5692,7 @@
         <v>61</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
@@ -5707,22 +5704,22 @@
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>36.94364147855195</v>
+        <v>1116402.245575634</v>
       </c>
       <c r="G151">
-        <v>435.1657911866653</v>
+        <v>4841705.987622923</v>
       </c>
       <c r="H151">
-        <v>2463.124845505499</v>
+        <v>3986283.465941913</v>
       </c>
       <c r="I151">
-        <v>602.6612940726969</v>
+        <v>1117080.821930939</v>
       </c>
       <c r="J151">
-        <v>-112.9424864714456</v>
+        <v>4841125.166959327</v>
       </c>
       <c r="K151">
-        <v>-695.9683519805936</v>
+        <v>3983753.180825016</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,7 +5727,7 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -5742,22 +5739,22 @@
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>36.4411667734543</v>
+        <v>1116401.687784357</v>
       </c>
       <c r="G152">
-        <v>449.6983979633486</v>
+        <v>4841722.500397669</v>
       </c>
       <c r="H152">
-        <v>2473.669805024373</v>
+        <v>3986291.672013971</v>
       </c>
       <c r="I152">
-        <v>673.1744340152208</v>
+        <v>1117165.111271353</v>
       </c>
       <c r="J152">
-        <v>-172.6570399607101</v>
+        <v>4841076.515432286</v>
       </c>
       <c r="K152">
-        <v>-1088.681037619039</v>
+        <v>3983405.584504797</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,7 +5762,7 @@
         <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
@@ -5777,22 +5774,22 @@
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>35.95864777864261</v>
+        <v>1116401.152145679</v>
       </c>
       <c r="G153">
-        <v>464.2310047400316</v>
+        <v>4841739.013172416</v>
       </c>
       <c r="H153">
-        <v>2483.933985375623</v>
+        <v>3986299.659584093</v>
       </c>
       <c r="I153">
-        <v>745.4238951579299</v>
+        <v>1117251.47615923</v>
       </c>
       <c r="J153">
-        <v>-232.3715934499745</v>
+        <v>4841027.863905247</v>
       </c>
       <c r="K153">
-        <v>-1498.508603945086</v>
+        <v>3983042.839528154</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,7 +5797,7 @@
         <v>61</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
         <v>16</v>
@@ -5812,22 +5809,22 @@
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>35.49479791254985</v>
+        <v>1116400.637231383</v>
       </c>
       <c r="G154">
-        <v>478.7636115167147</v>
+        <v>4841755.525947164</v>
       </c>
       <c r="H154">
-        <v>2493.931952098296</v>
+        <v>3986307.439987157</v>
       </c>
       <c r="I154">
-        <v>819.4524328129925</v>
+        <v>1117339.967703016</v>
       </c>
       <c r="J154">
-        <v>-292.0861469392385</v>
+        <v>4840979.212378208</v>
       </c>
       <c r="K154">
-        <v>-1925.451050958734</v>
+        <v>3982664.945895087</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,7 +5832,7 @@
         <v>61</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
@@ -5847,22 +5844,22 @@
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>35.04844378122198</v>
+        <v>1116400.141738896</v>
       </c>
       <c r="G155">
-        <v>493.2962182933979</v>
+        <v>4841772.03872191</v>
       </c>
       <c r="H155">
-        <v>2503.677165936616</v>
+        <v>3986315.023698298</v>
       </c>
       <c r="I155">
-        <v>895.3038551028059</v>
+        <v>1117430.638269658</v>
       </c>
       <c r="J155">
-        <v>-351.8007004285029</v>
+        <v>4840930.560851169</v>
       </c>
       <c r="K155">
-        <v>-2369.508378659987</v>
+        <v>3982271.903605597</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,7 +5867,7 @@
         <v>61</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
         <v>16</v>
@@ -5882,22 +5879,22 @@
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>34.61851269159636</v>
+        <v>1116399.664477435</v>
       </c>
       <c r="G156">
-        <v>507.8288250700811</v>
+        <v>4841788.551496657</v>
       </c>
       <c r="H156">
-        <v>2513.18209182168</v>
+        <v>3986322.420417706</v>
       </c>
       <c r="I156">
-        <v>973.0230488844765</v>
+        <v>1117523.541515588</v>
       </c>
       <c r="J156">
-        <v>-411.5152539177673</v>
+        <v>4840881.909324128</v>
       </c>
       <c r="K156">
-        <v>-2830.680587048844</v>
+        <v>3981863.712659683</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,7 +5902,7 @@
         <v>61</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
@@ -5917,22 +5914,22 @@
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>34.20402180785658</v>
+        <v>1116399.204355966</v>
       </c>
       <c r="G157">
-        <v>522.3614318467642</v>
+        <v>4841805.064271404</v>
       </c>
       <c r="H157">
-        <v>2522.458294737907</v>
+        <v>3986329.639145233</v>
       </c>
       <c r="I157">
-        <v>1052.656006312674</v>
+        <v>1117618.732418479</v>
       </c>
       <c r="J157">
-        <v>-471.2298074070318</v>
+        <v>4840833.257797089</v>
       </c>
       <c r="K157">
-        <v>-3308.967676125304</v>
+        <v>3981440.373057345</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,7 +5937,7 @@
         <v>61</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
         <v>16</v>
@@ -5952,22 +5949,22 @@
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>33.80406870135895</v>
+        <v>1116398.760372713</v>
       </c>
       <c r="G158">
-        <v>536.8940386234474</v>
+        <v>4841821.57704615</v>
       </c>
       <c r="H158">
-        <v>2531.516524323828</v>
+        <v>3986336.688246234</v>
       </c>
       <c r="I158">
-        <v>1134.249852056563</v>
+        <v>1117716.26730978</v>
       </c>
       <c r="J158">
-        <v>-530.9443608962963</v>
+        <v>4840784.60627005</v>
       </c>
       <c r="K158">
-        <v>-3804.369645889367</v>
+        <v>3981001.884798583</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,7 +5972,7 @@
         <v>61</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>16</v>
@@ -5987,22 +5984,22 @@
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>33.41782308733558</v>
+        <v>1116398.331605987</v>
       </c>
       <c r="G159">
-        <v>551.4266454001305</v>
+        <v>4841838.089820897</v>
       </c>
       <c r="H159">
-        <v>2540.366789759436</v>
+        <v>3986343.575509838</v>
       </c>
       <c r="I159">
-        <v>1217.852871186933</v>
+        <v>1117816.203908049</v>
       </c>
       <c r="J159">
-        <v>-590.6589143855601</v>
+        <v>4840735.954743011</v>
       </c>
       <c r="K159">
-        <v>-4316.886496341029</v>
+        <v>3980548.247883398</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,7 +6007,7 @@
         <v>61</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
         <v>16</v>
@@ -6022,1877 +6019,22 @@
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>33.04451957619357</v>
+        <v>1116397.917206137</v>
       </c>
       <c r="G160">
-        <v>565.9592521768136</v>
+        <v>4841854.602595645</v>
       </c>
       <c r="H160">
-        <v>2549.018426248432</v>
+        <v>3986350.308200687</v>
       </c>
       <c r="I160">
-        <v>1303.514537750022</v>
+        <v>1117918.60135311</v>
       </c>
       <c r="J160">
-        <v>-650.3734678748245</v>
+        <v>4840687.30321597</v>
       </c>
       <c r="K160">
-        <v>-4846.518227480298</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>61</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G161">
-        <v>-41.16323310026714</v>
-      </c>
-      <c r="H161">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I161">
-        <v>-2911.425966785701</v>
-      </c>
-      <c r="J161">
-        <v>2578.02709431688</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>61</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G162">
-        <v>-41.16323310026714</v>
-      </c>
-      <c r="H162">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I162">
-        <v>-2853.946665838785</v>
-      </c>
-      <c r="J162">
-        <v>2515.314537990812</v>
-      </c>
-      <c r="K162">
-        <v>281.6222727105263</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>61</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G163">
-        <v>-41.16323310026714</v>
-      </c>
-      <c r="H163">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I163">
-        <v>-2795.051989986039</v>
-      </c>
-      <c r="J163">
-        <v>2452.601981664744</v>
-      </c>
-      <c r="K163">
-        <v>549.2015679935512</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>61</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G164">
-        <v>-41.16323310026714</v>
-      </c>
-      <c r="H164">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I164">
-        <v>-2734.707086922527</v>
-      </c>
-      <c r="J164">
-        <v>2389.889425338675</v>
-      </c>
-      <c r="K164">
-        <v>802.7378858490765</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>61</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G165">
-        <v>-41.16323310026714</v>
-      </c>
-      <c r="H165">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I165">
-        <v>-2672.876246137369</v>
-      </c>
-      <c r="J165">
-        <v>2327.176869012607</v>
-      </c>
-      <c r="K165">
-        <v>1042.231226277101</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>61</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G166">
-        <v>-41.16323310026714</v>
-      </c>
-      <c r="H166">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I166">
-        <v>-2609.522877781206</v>
-      </c>
-      <c r="J166">
-        <v>2264.464312686539</v>
-      </c>
-      <c r="K166">
-        <v>1267.681589277626</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>61</v>
-      </c>
-      <c r="B167" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G167">
-        <v>-41.16323310026714</v>
-      </c>
-      <c r="H167">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I167">
-        <v>-2544.609491013303</v>
-      </c>
-      <c r="J167">
-        <v>2201.751756360471</v>
-      </c>
-      <c r="K167">
-        <v>1479.08897485065</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>61</v>
-      </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G168">
-        <v>-41.16323310026714</v>
-      </c>
-      <c r="H168">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I168">
-        <v>-2478.097671815462</v>
-      </c>
-      <c r="J168">
-        <v>2139.039200034402</v>
-      </c>
-      <c r="K168">
-        <v>1676.453382996174</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>61</v>
-      </c>
-      <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>230.1573364612153</v>
-      </c>
-      <c r="G169">
-        <v>-34.36602464662948</v>
-      </c>
-      <c r="H169">
-        <v>513.3843529165562</v>
-      </c>
-      <c r="I169">
-        <v>-2409.948060259625</v>
-      </c>
-      <c r="J169">
-        <v>2076.326643708334</v>
-      </c>
-      <c r="K169">
-        <v>1859.774813714197</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>61</v>
-      </c>
-      <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>178.628942433708</v>
-      </c>
-      <c r="G170">
-        <v>-27.56881619299181</v>
-      </c>
-      <c r="H170">
-        <v>632.4860682012313</v>
-      </c>
-      <c r="I170">
-        <v>-2340.120327215719</v>
-      </c>
-      <c r="J170">
-        <v>2013.614087382266</v>
-      </c>
-      <c r="K170">
-        <v>2029.05326700472</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>61</v>
-      </c>
-      <c r="B171" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>148.3585958858318</v>
-      </c>
-      <c r="G171">
-        <v>-20.77160773935416</v>
-      </c>
-      <c r="H171">
-        <v>703.4291409177468</v>
-      </c>
-      <c r="I171">
-        <v>-2268.573150485944</v>
-      </c>
-      <c r="J171">
-        <v>1950.901531056197</v>
-      </c>
-      <c r="K171">
-        <v>2184.288742867743</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>61</v>
-      </c>
-      <c r="B172" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" t="s">
-        <v>20</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>129.2497323998305</v>
-      </c>
-      <c r="G172">
-        <v>-13.97439928571649</v>
-      </c>
-      <c r="H172">
-        <v>754.1273601292595</v>
-      </c>
-      <c r="I172">
-        <v>-2195.264190351391</v>
-      </c>
-      <c r="J172">
-        <v>1888.188974730129</v>
-      </c>
-      <c r="K172">
-        <v>2325.481241303266</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>61</v>
-      </c>
-      <c r="B173" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>115.9232885721239</v>
-      </c>
-      <c r="G173">
-        <v>-7.177190832078831</v>
-      </c>
-      <c r="H173">
-        <v>793.6060362676736</v>
-      </c>
-      <c r="I173">
-        <v>-2120.150064516534</v>
-      </c>
-      <c r="J173">
-        <v>1825.476418404061</v>
-      </c>
-      <c r="K173">
-        <v>2452.630762311288</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>61</v>
-      </c>
-      <c r="B174" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>105.9813623951962</v>
-      </c>
-      <c r="G174">
-        <v>-0.3799823784411739</v>
-      </c>
-      <c r="H174">
-        <v>825.9421342702848</v>
-      </c>
-      <c r="I174">
-        <v>-2043.186322436721</v>
-      </c>
-      <c r="J174">
-        <v>1762.763862077993</v>
-      </c>
-      <c r="K174">
-        <v>2565.737305891809</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>61</v>
-      </c>
-      <c r="B175" t="s">
-        <v>13</v>
-      </c>
-      <c r="C175" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>98.20816447366919</v>
-      </c>
-      <c r="G175">
-        <v>6.417226075196488</v>
-      </c>
-      <c r="H175">
-        <v>853.3284488577464</v>
-      </c>
-      <c r="I175">
-        <v>-1964.327419013538</v>
-      </c>
-      <c r="J175">
-        <v>1700.051305751924</v>
-      </c>
-      <c r="K175">
-        <v>2664.80087204483</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>61</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>91.91908137005451</v>
-      </c>
-      <c r="G176">
-        <v>13.21443452883415</v>
-      </c>
-      <c r="H176">
-        <v>877.0810889711552</v>
-      </c>
-      <c r="I176">
-        <v>-1883.526687642419</v>
-      </c>
-      <c r="J176">
-        <v>1637.338749425856</v>
-      </c>
-      <c r="K176">
-        <v>2749.821460770351</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>61</v>
-      </c>
-      <c r="B177" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>86.69690146820533</v>
-      </c>
-      <c r="G177">
-        <v>20.01164298247181</v>
-      </c>
-      <c r="H177">
-        <v>898.0523197797075</v>
-      </c>
-      <c r="I177">
-        <v>-1800.736312596597</v>
-      </c>
-      <c r="J177">
-        <v>1574.626193099788</v>
-      </c>
-      <c r="K177">
-        <v>2820.799072068372</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>61</v>
-      </c>
-      <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>82.27149692160515</v>
-      </c>
-      <c r="G178">
-        <v>26.80885143610948</v>
-      </c>
-      <c r="H178">
-        <v>916.8257913706236</v>
-      </c>
-      <c r="I178">
-        <v>-1715.907300731019</v>
-      </c>
-      <c r="J178">
-        <v>1511.913636773719</v>
-      </c>
-      <c r="K178">
-        <v>2877.733705938893</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>61</v>
-      </c>
-      <c r="B179" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>78.45944264879766</v>
-      </c>
-      <c r="G179">
-        <v>33.60605988974714</v>
-      </c>
-      <c r="H179">
-        <v>933.8187648104421</v>
-      </c>
-      <c r="I179">
-        <v>-1628.989452489511</v>
-      </c>
-      <c r="J179">
-        <v>1449.201080447651</v>
-      </c>
-      <c r="K179">
-        <v>2920.625362381913</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>61</v>
-      </c>
-      <c r="B180" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>75.13132229318086</v>
-      </c>
-      <c r="G180">
-        <v>40.40326834338479</v>
-      </c>
-      <c r="H180">
-        <v>949.339905753489</v>
-      </c>
-      <c r="I180">
-        <v>-1539.931332198011</v>
-      </c>
-      <c r="J180">
-        <v>1386.488524121583</v>
-      </c>
-      <c r="K180">
-        <v>2949.474041397432</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>61</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>72.1929065751638</v>
-      </c>
-      <c r="G181">
-        <v>47.20047679702246</v>
-      </c>
-      <c r="H181">
-        <v>963.6239782244015</v>
-      </c>
-      <c r="I181">
-        <v>-1448.6802376263</v>
-      </c>
-      <c r="J181">
-        <v>1323.775967795515</v>
-      </c>
-      <c r="K181">
-        <v>2964.279742985451</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>61</v>
-      </c>
-      <c r="B182" t="s">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>69.57375876430811</v>
-      </c>
-      <c r="G182">
-        <v>53.99768525066012</v>
-      </c>
-      <c r="H182">
-        <v>976.8537025090042</v>
-      </c>
-      <c r="I182">
-        <v>-1355.182168800228</v>
-      </c>
-      <c r="J182">
-        <v>1261.063411469446</v>
-      </c>
-      <c r="K182">
-        <v>2965.04246714597</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>61</v>
-      </c>
-      <c r="B183" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>67.22004081686144</v>
-      </c>
-      <c r="G183">
-        <v>60.79489370429778</v>
-      </c>
-      <c r="H183">
-        <v>989.1740853646003</v>
-      </c>
-      <c r="I183">
-        <v>-1259.381796045961</v>
-      </c>
-      <c r="J183">
-        <v>1198.350855143378</v>
-      </c>
-      <c r="K183">
-        <v>2951.762213878989</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>61</v>
-      </c>
-      <c r="B184" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" t="s">
-        <v>20</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>65.08980736480054</v>
-      </c>
-      <c r="G184">
-        <v>67.59210215793544</v>
-      </c>
-      <c r="H184">
-        <v>1000.70213403916</v>
-      </c>
-      <c r="I184">
-        <v>-1161.222427247346</v>
-      </c>
-      <c r="J184">
-        <v>1135.63829881731</v>
-      </c>
-      <c r="K184">
-        <v>2924.438983184507</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>61</v>
-      </c>
-      <c r="B185" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" t="s">
-        <v>17</v>
-      </c>
-      <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>63.14983204632966</v>
-      </c>
-      <c r="G185">
-        <v>74.38931061157311</v>
-      </c>
-      <c r="H185">
-        <v>1011.533631017133</v>
-      </c>
-      <c r="I185">
-        <v>-1060.645974297029</v>
-      </c>
-      <c r="J185">
-        <v>1072.925742491241</v>
-      </c>
-      <c r="K185">
-        <v>2883.072775062525</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>61</v>
-      </c>
-      <c r="B186" t="s">
-        <v>13</v>
-      </c>
-      <c r="C186" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" t="s">
-        <v>20</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>61.37341004498937</v>
-      </c>
-      <c r="G186">
-        <v>81.18651906521076</v>
-      </c>
-      <c r="H186">
-        <v>1021.747976102712</v>
-      </c>
-      <c r="I186">
-        <v>-957.5929187214512</v>
-      </c>
-      <c r="J186">
-        <v>1010.213186165173</v>
-      </c>
-      <c r="K186">
-        <v>2827.663589513043</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>61</v>
-      </c>
-      <c r="B187" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>59.73880106611734</v>
-      </c>
-      <c r="G187">
-        <v>87.98372751884843</v>
-      </c>
-      <c r="H187">
-        <v>1031.411721887995</v>
-      </c>
-      <c r="I187">
-        <v>-852.0022764593975</v>
-      </c>
-      <c r="J187">
-        <v>947.5006298391049</v>
-      </c>
-      <c r="K187">
-        <v>2758.21142653606</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>61</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>58.22810343285509</v>
-      </c>
-      <c r="G188">
-        <v>94.78093597248609</v>
-      </c>
-      <c r="H188">
-        <v>1040.581204129181</v>
-      </c>
-      <c r="I188">
-        <v>-743.8115617732492</v>
-      </c>
-      <c r="J188">
-        <v>884.7880735130366</v>
-      </c>
-      <c r="K188">
-        <v>2674.716286131577</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>61</v>
-      </c>
-      <c r="B189" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>56.82642508567132</v>
-      </c>
-      <c r="G189">
-        <v>101.5781444261237</v>
-      </c>
-      <c r="H189">
-        <v>1049.304531587865</v>
-      </c>
-      <c r="I189">
-        <v>-632.9567502715873</v>
-      </c>
-      <c r="J189">
-        <v>822.0755171869682</v>
-      </c>
-      <c r="K189">
-        <v>2577.178168299593</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>61</v>
-      </c>
-      <c r="B190" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" t="s">
-        <v>17</v>
-      </c>
-      <c r="D190" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>55.52126324711314</v>
-      </c>
-      <c r="G190">
-        <v>108.3753528797614</v>
-      </c>
-      <c r="H190">
-        <v>1057.623113852169</v>
-      </c>
-      <c r="I190">
-        <v>-519.3722410212538</v>
-      </c>
-      <c r="J190">
-        <v>759.3629608609001</v>
-      </c>
-      <c r="K190">
-        <v>2465.59707304011</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>61</v>
-      </c>
-      <c r="B191" t="s">
-        <v>13</v>
-      </c>
-      <c r="C191" t="s">
-        <v>17</v>
-      </c>
-      <c r="D191" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>54.30203343130963</v>
-      </c>
-      <c r="G191">
-        <v>115.1725613333991</v>
-      </c>
-      <c r="H191">
-        <v>1065.572850176498</v>
-      </c>
-      <c r="I191">
-        <v>-402.9908177264633</v>
-      </c>
-      <c r="J191">
-        <v>696.6504045348318</v>
-      </c>
-      <c r="K191">
-        <v>2339.973000353125</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>61</v>
-      </c>
-      <c r="B192" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" t="s">
-        <v>20</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>53.1597071104573</v>
-      </c>
-      <c r="G192">
-        <v>121.9697697870367</v>
-      </c>
-      <c r="H192">
-        <v>1073.185065770856</v>
-      </c>
-      <c r="I192">
-        <v>-283.7436089519841</v>
-      </c>
-      <c r="J192">
-        <v>633.9378482087636</v>
-      </c>
-      <c r="K192">
-        <v>2200.305950238641</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>61</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" t="s">
-        <v>20</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>52.08652962022303</v>
-      </c>
-      <c r="G193">
-        <v>128.7669782406744</v>
-      </c>
-      <c r="H193">
-        <v>1080.487257304855</v>
-      </c>
-      <c r="I193">
-        <v>-161.5600473668537</v>
-      </c>
-      <c r="J193">
-        <v>571.2252918826953</v>
-      </c>
-      <c r="K193">
-        <v>2046.595922696656</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>61</v>
-      </c>
-      <c r="B194" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" t="s">
-        <v>17</v>
-      </c>
-      <c r="D194" t="s">
-        <v>20</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>51.07579812636308</v>
-      </c>
-      <c r="G194">
-        <v>135.564186694312</v>
-      </c>
-      <c r="H194">
-        <v>1087.503692456381</v>
-      </c>
-      <c r="I194">
-        <v>-36.36782798450546</v>
-      </c>
-      <c r="J194">
-        <v>508.5127355566269</v>
-      </c>
-      <c r="K194">
-        <v>1878.842917727171</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>61</v>
-      </c>
-      <c r="B195" t="s">
-        <v>13</v>
-      </c>
-      <c r="C195" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>50.12168510909759</v>
-      </c>
-      <c r="G195">
-        <v>142.3613951479497</v>
-      </c>
-      <c r="H195">
-        <v>1094.255896507028</v>
-      </c>
-      <c r="I195">
-        <v>91.9071346254035</v>
-      </c>
-      <c r="J195">
-        <v>445.8001792305587</v>
-      </c>
-      <c r="K195">
-        <v>1697.046935330186</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>61</v>
-      </c>
-      <c r="B196" t="s">
-        <v>13</v>
-      </c>
-      <c r="C196" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" t="s">
-        <v>20</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>49.21909673770622</v>
-      </c>
-      <c r="G196">
-        <v>149.1586036015874</v>
-      </c>
-      <c r="H196">
-        <v>1100.76305059582</v>
-      </c>
-      <c r="I196">
-        <v>223.3407501787796</v>
-      </c>
-      <c r="J196">
-        <v>383.0876229044904</v>
-      </c>
-      <c r="K196">
-        <v>1501.2079755057</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>61</v>
-      </c>
-      <c r="B197" t="s">
-        <v>13</v>
-      </c>
-      <c r="C197" t="s">
-        <v>17</v>
-      </c>
-      <c r="D197" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>48.36355827059094</v>
-      </c>
-      <c r="G197">
-        <v>155.955812055225</v>
-      </c>
-      <c r="H197">
-        <v>1107.042320204953</v>
-      </c>
-      <c r="I197">
-        <v>358.0107975984496</v>
-      </c>
-      <c r="J197">
-        <v>320.3750665784223</v>
-      </c>
-      <c r="K197">
-        <v>1291.326038253714</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>61</v>
-      </c>
-      <c r="B198" t="s">
-        <v>13</v>
-      </c>
-      <c r="C198" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" t="s">
-        <v>20</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>47.55112059239453</v>
-      </c>
-      <c r="G198">
-        <v>162.7530205088627</v>
-      </c>
-      <c r="H198">
-        <v>1113.109128049185</v>
-      </c>
-      <c r="I198">
-        <v>495.9969710416557</v>
-      </c>
-      <c r="J198">
-        <v>257.6625102523539</v>
-      </c>
-      <c r="K198">
-        <v>1067.401123574227</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>61</v>
-      </c>
-      <c r="B199" t="s">
-        <v>13</v>
-      </c>
-      <c r="C199" t="s">
-        <v>17</v>
-      </c>
-      <c r="D199" t="s">
-        <v>20</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>46.77828343166882</v>
-      </c>
-      <c r="G199">
-        <v>169.5502289625003</v>
-      </c>
-      <c r="H199">
-        <v>1118.977382291768</v>
-      </c>
-      <c r="I199">
-        <v>637.3809270609503</v>
-      </c>
-      <c r="J199">
-        <v>194.9499539262855</v>
-      </c>
-      <c r="K199">
-        <v>829.4332314672401</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>61</v>
-      </c>
-      <c r="B200" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>46.0419318523699</v>
-      </c>
-      <c r="G200">
-        <v>176.347437416138</v>
-      </c>
-      <c r="H200">
-        <v>1124.659668585356</v>
-      </c>
-      <c r="I200">
-        <v>782.2463329263632</v>
-      </c>
-      <c r="J200">
-        <v>132.2373976002174</v>
-      </c>
-      <c r="K200">
-        <v>577.4223619327533</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>61</v>
-      </c>
-      <c r="B201" t="s">
-        <v>13</v>
-      </c>
-      <c r="C201" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" t="s">
-        <v>20</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>45.33928339059698</v>
-      </c>
-      <c r="G201">
-        <v>183.1446458697757</v>
-      </c>
-      <c r="H201">
-        <v>1130.167412608003</v>
-      </c>
-      <c r="I201">
-        <v>930.6789161374854</v>
-      </c>
-      <c r="J201">
-        <v>69.52484127414901</v>
-      </c>
-      <c r="K201">
-        <v>311.3685149707654</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>61</v>
-      </c>
-      <c r="B202" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>44.66784379069218</v>
-      </c>
-      <c r="G202">
-        <v>189.9418543234134</v>
-      </c>
-      <c r="H202">
-        <v>1135.511018372165</v>
-      </c>
-      <c r="I202">
-        <v>1082.766515154708</v>
-      </c>
-      <c r="J202">
-        <v>6.812284948080617</v>
-      </c>
-      <c r="K202">
-        <v>31.27169058127731</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>61</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>44.02536973536916</v>
-      </c>
-      <c r="G203">
-        <v>196.739062777051</v>
-      </c>
-      <c r="H203">
-        <v>1140.699986514999</v>
-      </c>
-      <c r="I203">
-        <v>1238.599131379702</v>
-      </c>
-      <c r="J203">
-        <v>-55.90027137798748</v>
-      </c>
-      <c r="K203">
-        <v>-262.8681112357103</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>61</v>
-      </c>
-      <c r="B204" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>43.4098373005959</v>
-      </c>
-      <c r="G204">
-        <v>203.5362712306886</v>
-      </c>
-      <c r="H204">
-        <v>1145.74301594933</v>
-      </c>
-      <c r="I204">
-        <v>1398.26898241586</v>
-      </c>
-      <c r="J204">
-        <v>-118.6128277040559</v>
-      </c>
-      <c r="K204">
-        <v>-571.0508904801991</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>61</v>
-      </c>
-      <c r="B205" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>42.81941512446534</v>
-      </c>
-      <c r="G205">
-        <v>210.3334796843263</v>
-      </c>
-      <c r="H205">
-        <v>1150.648091607295</v>
-      </c>
-      <c r="I205">
-        <v>1561.870556640215</v>
-      </c>
-      <c r="J205">
-        <v>-181.3253840301243</v>
-      </c>
-      <c r="K205">
-        <v>-893.276647152189</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>61</v>
-      </c>
-      <c r="B206" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" t="s">
-        <v>20</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>42.25244147972101</v>
-      </c>
-      <c r="G206">
-        <v>217.130688137964</v>
-      </c>
-      <c r="H206">
-        <v>1155.422560499259</v>
-      </c>
-      <c r="I206">
-        <v>1729.500669119155</v>
-      </c>
-      <c r="J206">
-        <v>-244.0379403561926</v>
-      </c>
-      <c r="K206">
-        <v>-1229.545381251679</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>61</v>
-      </c>
-      <c r="B207" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" t="s">
-        <v>17</v>
-      </c>
-      <c r="D207" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>41.70740459615662</v>
-      </c>
-      <c r="G207">
-        <v>223.9278965916016</v>
-      </c>
-      <c r="H207">
-        <v>1160.073197906899</v>
-      </c>
-      <c r="I207">
-        <v>1901.258518901013</v>
-      </c>
-      <c r="J207">
-        <v>-306.7504966822605</v>
-      </c>
-      <c r="K207">
-        <v>-1579.857092778666</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>61</v>
-      </c>
-      <c r="B208" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" t="s">
-        <v>17</v>
-      </c>
-      <c r="D208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>41.18292570225438</v>
-      </c>
-      <c r="G208">
-        <v>230.7251050452393</v>
-      </c>
-      <c r="H208">
-        <v>1164.60626520739</v>
-      </c>
-      <c r="I208">
-        <v>2077.245747719427</v>
-      </c>
-      <c r="J208">
-        <v>-369.4630530083288</v>
-      </c>
-      <c r="K208">
-        <v>-1944.211781733156</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>61</v>
-      </c>
-      <c r="B209" t="s">
-        <v>13</v>
-      </c>
-      <c r="C209" t="s">
-        <v>17</v>
-      </c>
-      <c r="D209" t="s">
-        <v>20</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>40.67774435292932</v>
-      </c>
-      <c r="G209">
-        <v>237.522313498877</v>
-      </c>
-      <c r="H209">
-        <v>1169.027560567144</v>
-      </c>
-      <c r="I209">
-        <v>2257.566500142212</v>
-      </c>
-      <c r="J209">
-        <v>-432.1756093343972</v>
-      </c>
-      <c r="K209">
-        <v>-2322.609448115147</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>61</v>
-      </c>
-      <c r="B210" t="s">
-        <v>13</v>
-      </c>
-      <c r="C210" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" t="s">
-        <v>20</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>40.19070568793551</v>
-      </c>
-      <c r="G210">
-        <v>244.3195219525146</v>
-      </c>
-      <c r="H210">
-        <v>1173.342463534888</v>
-      </c>
-      <c r="I210">
-        <v>2442.327485201356</v>
-      </c>
-      <c r="J210">
-        <v>-494.8881656604656</v>
-      </c>
-      <c r="K210">
-        <v>-2715.050091924638</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>61</v>
-      </c>
-      <c r="B211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D211" t="s">
-        <v>20</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>39.7207493277589</v>
-      </c>
-      <c r="G211">
-        <v>251.1167304061523</v>
-      </c>
-      <c r="H211">
-        <v>1177.555974394426</v>
-      </c>
-      <c r="I211">
-        <v>2631.638039540595</v>
-      </c>
-      <c r="J211">
-        <v>-557.600721986534</v>
-      </c>
-      <c r="K211">
-        <v>-3121.53371316163</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>61</v>
-      </c>
-      <c r="B212" t="s">
-        <v>13</v>
-      </c>
-      <c r="C212" t="s">
-        <v>17</v>
-      </c>
-      <c r="D212" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>39.26689966400669</v>
-      </c>
-      <c r="G212">
-        <v>257.9139388597899</v>
-      </c>
-      <c r="H212">
-        <v>1181.672748999111</v>
-      </c>
-      <c r="I212">
-        <v>2825.610192117917</v>
-      </c>
-      <c r="J212">
-        <v>-620.3132783126018</v>
-      </c>
-      <c r="K212">
-        <v>-3542.060311826118</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>61</v>
-      </c>
-      <c r="B213" t="s">
-        <v>13</v>
-      </c>
-      <c r="C213" t="s">
-        <v>17</v>
-      </c>
-      <c r="D213" t="s">
-        <v>20</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>38.82825734197613</v>
-      </c>
-      <c r="G213">
-        <v>264.7111473134276</v>
-      </c>
-      <c r="H213">
-        <v>1185.697129696617</v>
-      </c>
-      <c r="I213">
-        <v>3024.358730501351</v>
-      </c>
-      <c r="J213">
-        <v>-683.0258346386702</v>
-      </c>
-      <c r="K213">
-        <v>-3976.62988791811</v>
+        <v>3980079.462311788</v>
       </c>
     </row>
   </sheetData>
